--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_18_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2926092.889458097</v>
+        <v>2924359.408344455</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6049179.212228716</v>
+        <v>6049179.212228715</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673442</v>
       </c>
     </row>
     <row r="9">
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E11" t="n">
-        <v>302.4991588451549</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>327.4448345146045</v>
@@ -1385,10 +1385,10 @@
         <v>333.0902356170842</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I11" t="n">
-        <v>23.81896975173335</v>
+        <v>23.81896975173333</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.21019719500372</v>
       </c>
       <c r="T11" t="n">
-        <v>107.832694483568</v>
+        <v>14.40375914551358</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W11" t="n">
         <v>269.8097574903061</v>
       </c>
       <c r="X11" t="n">
-        <v>290.2998894513621</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>306.8067274289466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>154.6231612189019</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -1458,16 +1458,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>65.63800116627692</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>135.8553954612995</v>
       </c>
       <c r="H12" t="n">
-        <v>18.43211025672105</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I12" t="n">
-        <v>38.1608637285961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>144.0419631757947</v>
+        <v>64.61075194868778</v>
       </c>
       <c r="T12" t="n">
         <v>194.1665539401884</v>
@@ -1515,7 +1515,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>146.3270105093789</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1546,7 @@
         <v>71.70374093278244</v>
       </c>
       <c r="I13" t="n">
-        <v>38.5007924223436</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.3026304363736</v>
+        <v>275.5046187371537</v>
       </c>
       <c r="C14" t="n">
-        <v>285.8416805439006</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>327.4448345146045</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H14" t="n">
-        <v>176.5699598040296</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I14" t="n">
-        <v>23.81896975173335</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.21019719500372</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>248.3210472430279</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,10 +1686,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>93.27728776120878</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>68.0138543375318</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>56.4241842341925</v>
+        <v>135.8553954612995</v>
       </c>
       <c r="H15" t="n">
-        <v>97.863321483828</v>
+        <v>72.01423207165874</v>
       </c>
       <c r="I15" t="n">
-        <v>38.1608637285961</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.763751642754514</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S15" t="n">
-        <v>144.0419631757947</v>
+        <v>64.61075194868778</v>
       </c>
       <c r="T15" t="n">
-        <v>194.1665539401884</v>
+        <v>114.7353427130815</v>
       </c>
       <c r="U15" t="n">
-        <v>225.843479337428</v>
+        <v>146.4122681103211</v>
       </c>
       <c r="V15" t="n">
-        <v>206.9514977372568</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1783,7 +1783,7 @@
         <v>71.70374093278244</v>
       </c>
       <c r="I16" t="n">
-        <v>38.5007924223436</v>
+        <v>38.50079242234359</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1844,19 +1844,19 @@
         <v>223.8714192092667</v>
       </c>
       <c r="C17" t="n">
-        <v>78.57047386496363</v>
+        <v>206.4104693167937</v>
       </c>
       <c r="D17" t="n">
-        <v>195.820619166469</v>
+        <v>195.8206191664691</v>
       </c>
       <c r="E17" t="n">
         <v>223.0679476180479</v>
       </c>
       <c r="F17" t="n">
-        <v>248.0136232874975</v>
+        <v>248.0136232874976</v>
       </c>
       <c r="G17" t="n">
-        <v>253.6590243899772</v>
+        <v>253.6590243899773</v>
       </c>
       <c r="H17" t="n">
         <v>152.1284865777488</v>
@@ -1895,10 +1895,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>52.05832719786045</v>
       </c>
       <c r="U17" t="n">
-        <v>92.26072719994707</v>
+        <v>92.2607271999471</v>
       </c>
       <c r="V17" t="n">
         <v>168.889836015921</v>
@@ -1910,7 +1910,7 @@
         <v>210.8686782242551</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.3755162018397</v>
+        <v>47.47719355214904</v>
       </c>
     </row>
     <row r="18">
@@ -1926,10 +1926,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>40.94742292654946</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S18" t="n">
         <v>144.0419631757947</v>
@@ -1977,10 +1977,10 @@
         <v>194.1665539401884</v>
       </c>
       <c r="U18" t="n">
-        <v>128.326930340907</v>
+        <v>225.843479337428</v>
       </c>
       <c r="V18" t="n">
-        <v>73.93816469521136</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -1999,31 +1999,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20.96955772772338</v>
+        <v>20.96955772772341</v>
       </c>
       <c r="C19" t="n">
-        <v>8.38439864441392</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>64.36678268455941</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>7.880965658610369</v>
+        <v>7.880965658610397</v>
       </c>
       <c r="H19" t="n">
-        <v>61.39381400588766</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.154479050315246</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>202.2744851471423</v>
+        <v>43.41206269292844</v>
       </c>
       <c r="T19" t="n">
-        <v>63.75254983362936</v>
+        <v>63.75254983362939</v>
       </c>
       <c r="U19" t="n">
         <v>286.2509789249108</v>
       </c>
       <c r="V19" t="n">
-        <v>93.27522086961409</v>
+        <v>93.27522086961412</v>
       </c>
       <c r="W19" t="n">
         <v>127.6605758823771</v>
       </c>
       <c r="X19" t="n">
-        <v>66.84723293482324</v>
+        <v>66.84723293482327</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.72223089788088</v>
+        <v>59.72223089788091</v>
       </c>
     </row>
     <row r="20">
@@ -2081,19 +2081,19 @@
         <v>223.8714192092667</v>
       </c>
       <c r="C20" t="n">
-        <v>206.4104693167936</v>
+        <v>206.4104693167937</v>
       </c>
       <c r="D20" t="n">
-        <v>184.8121325327</v>
+        <v>195.8206191664691</v>
       </c>
       <c r="E20" t="n">
         <v>223.0679476180479</v>
       </c>
       <c r="F20" t="n">
-        <v>248.0136232874975</v>
+        <v>248.0136232874976</v>
       </c>
       <c r="G20" t="n">
-        <v>253.6590243899772</v>
+        <v>253.6590243899773</v>
       </c>
       <c r="H20" t="n">
         <v>152.1284865777488</v>
@@ -2132,16 +2132,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>52.05832719786042</v>
+        <v>52.05832719786045</v>
       </c>
       <c r="U20" t="n">
-        <v>92.26072719994707</v>
+        <v>92.2607271999471</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>168.889836015921</v>
       </c>
       <c r="W20" t="n">
-        <v>190.3785462631991</v>
+        <v>10.48022361350797</v>
       </c>
       <c r="X20" t="n">
         <v>210.8686782242551</v>
@@ -2163,19 +2163,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>140.0280864091908</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>24.96845247568862</v>
       </c>
       <c r="G21" t="n">
         <v>135.8553954612995</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>97.863321483828</v>
       </c>
       <c r="I21" t="n">
         <v>38.16086372859608</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.763751642754485</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0419631757947</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>194.1665539401884</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>46.91056274926356</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>20.96955772772341</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>8.384398644413949</v>
       </c>
       <c r="D22" t="n">
-        <v>54.11983324855847</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7433881128243</v>
+        <v>7.880965658610397</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.11983324855774</v>
       </c>
       <c r="S22" t="n">
-        <v>43.41206269292842</v>
+        <v>202.2744851471423</v>
       </c>
       <c r="T22" t="n">
-        <v>63.75254983362936</v>
+        <v>63.75254983362939</v>
       </c>
       <c r="U22" t="n">
-        <v>127.3885564706969</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V22" t="n">
-        <v>93.27522086961409</v>
+        <v>93.27522086961412</v>
       </c>
       <c r="W22" t="n">
         <v>127.6605758823771</v>
       </c>
       <c r="X22" t="n">
-        <v>66.84723293482324</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.72223089788088</v>
+        <v>59.72223089788091</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2318,19 @@
         <v>223.8714192092667</v>
       </c>
       <c r="C23" t="n">
-        <v>206.4104693167936</v>
+        <v>206.4104693167937</v>
       </c>
       <c r="D23" t="n">
-        <v>195.820619166469</v>
+        <v>195.8206191664691</v>
       </c>
       <c r="E23" t="n">
         <v>223.0679476180479</v>
       </c>
       <c r="F23" t="n">
-        <v>248.0136232874975</v>
+        <v>248.0136232874976</v>
       </c>
       <c r="G23" t="n">
-        <v>253.6590243899772</v>
+        <v>253.6590243899773</v>
       </c>
       <c r="H23" t="n">
         <v>152.1284865777488</v>
@@ -2369,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>52.05832719786042</v>
+        <v>52.05832719786045</v>
       </c>
       <c r="U23" t="n">
-        <v>92.26072719994707</v>
+        <v>92.2607271999471</v>
       </c>
       <c r="V23" t="n">
         <v>168.889836015921</v>
@@ -2415,7 +2415,7 @@
         <v>97.863321483828</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>38.16086372859608</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>105.7221781033462</v>
+        <v>67.56131437475032</v>
       </c>
       <c r="T24" t="n">
         <v>194.1665539401884</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.96955772772338</v>
+        <v>20.96955772772341</v>
       </c>
       <c r="C25" t="n">
-        <v>62.50423189297236</v>
+        <v>8.384398644413949</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>7.880965658610369</v>
+        <v>7.880965658610397</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.41206269292842</v>
+        <v>43.41206269292844</v>
       </c>
       <c r="T25" t="n">
-        <v>63.75254983362936</v>
+        <v>63.75254983362939</v>
       </c>
       <c r="U25" t="n">
-        <v>127.3885564706969</v>
+        <v>181.5083897192548</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>66.84723293482327</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.72223089788088</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,10 +2570,10 @@
         <v>333.0902356170842</v>
       </c>
       <c r="H26" t="n">
-        <v>231.5596978048557</v>
+        <v>231.5596978048558</v>
       </c>
       <c r="I26" t="n">
-        <v>23.81896975173331</v>
+        <v>23.81896975173338</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.2101971950037</v>
+        <v>66.21019719500374</v>
       </c>
       <c r="T26" t="n">
         <v>131.4895384249674</v>
       </c>
       <c r="U26" t="n">
-        <v>171.691938427054</v>
+        <v>171.6919384270541</v>
       </c>
       <c r="V26" t="n">
-        <v>248.3210472430279</v>
+        <v>248.321047243028</v>
       </c>
       <c r="W26" t="n">
         <v>269.8097574903061</v>
@@ -2621,7 +2621,7 @@
         <v>290.2998894513621</v>
       </c>
       <c r="Y26" t="n">
-        <v>306.8067274289466</v>
+        <v>306.8067274289467</v>
       </c>
     </row>
     <row r="27">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.763751642754485</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S27" t="n">
         <v>144.0419631757947</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100.4007689548303</v>
+        <v>100.4007689548304</v>
       </c>
       <c r="C28" t="n">
-        <v>87.81560987152088</v>
+        <v>87.81560987152092</v>
       </c>
       <c r="D28" t="n">
-        <v>69.1842617911054</v>
+        <v>69.18426179110544</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00275141946221</v>
+        <v>67.00275141946226</v>
       </c>
       <c r="F28" t="n">
-        <v>65.98983679582429</v>
+        <v>65.98983679582433</v>
       </c>
       <c r="G28" t="n">
-        <v>87.31217688571732</v>
+        <v>87.31217688571736</v>
       </c>
       <c r="H28" t="n">
-        <v>71.70374093278244</v>
+        <v>71.70374093278248</v>
       </c>
       <c r="I28" t="n">
-        <v>38.50079242234358</v>
+        <v>38.50079242234364</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76594105089778</v>
+        <v>41.76594105089784</v>
       </c>
       <c r="S28" t="n">
         <v>122.8432739200354</v>
@@ -2770,16 +2770,16 @@
         <v>206.8197676978039</v>
       </c>
       <c r="V28" t="n">
-        <v>172.706432096721</v>
+        <v>172.7064320967211</v>
       </c>
       <c r="W28" t="n">
-        <v>207.091787109484</v>
+        <v>207.0917871094841</v>
       </c>
       <c r="X28" t="n">
         <v>146.2784441619302</v>
       </c>
       <c r="Y28" t="n">
-        <v>139.1534421249878</v>
+        <v>139.1534421249879</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>303.3026304363737</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C29" t="n">
-        <v>285.8416805439007</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D29" t="n">
-        <v>275.2518303935761</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E29" t="n">
         <v>302.4991588451549</v>
       </c>
       <c r="F29" t="n">
-        <v>327.4448345146046</v>
+        <v>327.4448345146045</v>
       </c>
       <c r="G29" t="n">
-        <v>333.0902356170843</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H29" t="n">
         <v>231.5596978048558</v>
       </c>
       <c r="I29" t="n">
-        <v>23.81896975173339</v>
+        <v>23.81896975173335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.21019719500379</v>
+        <v>66.21019719500372</v>
       </c>
       <c r="T29" t="n">
-        <v>131.4895384249675</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U29" t="n">
-        <v>171.6919384270541</v>
+        <v>171.691938427054</v>
       </c>
       <c r="V29" t="n">
         <v>248.321047243028</v>
@@ -2855,7 +2855,7 @@
         <v>269.8097574903061</v>
       </c>
       <c r="X29" t="n">
-        <v>290.2998894513622</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y29" t="n">
         <v>306.8067274289467</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.763751642754485</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S30" t="n">
         <v>144.0419631757947</v>
@@ -2950,25 +2950,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C31" t="n">
-        <v>87.81560987152096</v>
+        <v>87.81560987152089</v>
       </c>
       <c r="D31" t="n">
-        <v>69.18426179110548</v>
+        <v>69.18426179110541</v>
       </c>
       <c r="E31" t="n">
-        <v>67.0027514194623</v>
+        <v>67.00275141946223</v>
       </c>
       <c r="F31" t="n">
-        <v>65.98983679582437</v>
+        <v>65.9898367958243</v>
       </c>
       <c r="G31" t="n">
-        <v>87.31217688571741</v>
+        <v>87.31217688571734</v>
       </c>
       <c r="H31" t="n">
-        <v>71.70374093278252</v>
+        <v>71.70374093278245</v>
       </c>
       <c r="I31" t="n">
-        <v>38.50079242234366</v>
+        <v>38.50079242234361</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76594105089787</v>
+        <v>41.7659410508978</v>
       </c>
       <c r="S31" t="n">
-        <v>122.8432739200355</v>
+        <v>122.8432739200354</v>
       </c>
       <c r="T31" t="n">
-        <v>143.1837610607364</v>
+        <v>143.1837610607363</v>
       </c>
       <c r="U31" t="n">
-        <v>206.819767697804</v>
+        <v>206.8197676978039</v>
       </c>
       <c r="V31" t="n">
         <v>172.7064320967211</v>
@@ -3013,7 +3013,7 @@
         <v>207.0917871094841</v>
       </c>
       <c r="X31" t="n">
-        <v>146.2784441619303</v>
+        <v>146.2784441619302</v>
       </c>
       <c r="Y31" t="n">
         <v>139.1534421249879</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>303.3026304363737</v>
+        <v>303.3026304363736</v>
       </c>
       <c r="C32" t="n">
-        <v>285.8416805439007</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2518303935761</v>
+        <v>275.251830393576</v>
       </c>
       <c r="E32" t="n">
         <v>302.4991588451549</v>
       </c>
       <c r="F32" t="n">
-        <v>327.4448345146046</v>
+        <v>327.4448345146045</v>
       </c>
       <c r="G32" t="n">
-        <v>333.0902356170843</v>
+        <v>333.0902356170842</v>
       </c>
       <c r="H32" t="n">
         <v>231.5596978048558</v>
       </c>
       <c r="I32" t="n">
-        <v>23.81896975173339</v>
+        <v>23.81896975173336</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.21019719500379</v>
+        <v>66.21019719500373</v>
       </c>
       <c r="T32" t="n">
-        <v>131.4895384249675</v>
+        <v>131.4895384249674</v>
       </c>
       <c r="U32" t="n">
         <v>171.6919384270541</v>
@@ -3092,7 +3092,7 @@
         <v>269.8097574903061</v>
       </c>
       <c r="X32" t="n">
-        <v>290.2998894513622</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y32" t="n">
         <v>306.8067274289467</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.763751642754485</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S33" t="n">
         <v>144.0419631757947</v>
@@ -3187,25 +3187,25 @@
         <v>100.4007689548304</v>
       </c>
       <c r="C34" t="n">
-        <v>87.81560987152096</v>
+        <v>87.81560987152091</v>
       </c>
       <c r="D34" t="n">
-        <v>69.18426179110548</v>
+        <v>69.18426179110543</v>
       </c>
       <c r="E34" t="n">
-        <v>67.0027514194623</v>
+        <v>67.00275141946224</v>
       </c>
       <c r="F34" t="n">
-        <v>65.98983679582437</v>
+        <v>65.98983679582432</v>
       </c>
       <c r="G34" t="n">
-        <v>87.31217688571741</v>
+        <v>87.31217688571735</v>
       </c>
       <c r="H34" t="n">
-        <v>71.70374093278252</v>
+        <v>71.70374093278247</v>
       </c>
       <c r="I34" t="n">
-        <v>38.50079242234367</v>
+        <v>38.50079242234362</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76594105089787</v>
+        <v>41.76594105089782</v>
       </c>
       <c r="S34" t="n">
-        <v>122.8432739200355</v>
+        <v>122.8432739200354</v>
       </c>
       <c r="T34" t="n">
-        <v>143.1837610607364</v>
+        <v>143.1837610607363</v>
       </c>
       <c r="U34" t="n">
         <v>206.8197676978039</v>
@@ -3250,7 +3250,7 @@
         <v>207.0917871094841</v>
       </c>
       <c r="X34" t="n">
-        <v>146.2784441619303</v>
+        <v>146.2784441619302</v>
       </c>
       <c r="Y34" t="n">
         <v>139.1534421249879</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.763751642754485</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S36" t="n">
         <v>144.0419631757947</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.19057175982661</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>21.60541267651715</v>
       </c>
       <c r="D37" t="n">
-        <v>100.9280454837091</v>
+        <v>2.97406459610167</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>21.10197969071359</v>
       </c>
       <c r="H37" t="n">
-        <v>5.493543737778712</v>
+        <v>5.493543737778714</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>56.63307672503164</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6149722878433</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U37" t="n">
         <v>140.6095705028001</v>
@@ -3484,13 +3484,13 @@
         <v>106.4962349017173</v>
       </c>
       <c r="W37" t="n">
-        <v>140.8815899144803</v>
+        <v>238.8355708020873</v>
       </c>
       <c r="X37" t="n">
         <v>80.06824696692647</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.9432449299841</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.763751642754485</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S39" t="n">
         <v>144.0419631757947</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.19057175982661</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>144.0036497082305</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D40" t="n">
-        <v>2.97406459610167</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0.7925542244584847</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>21.10197969071359</v>
+        <v>119.0559605783207</v>
       </c>
       <c r="H40" t="n">
-        <v>5.493543737778712</v>
+        <v>5.493543737778714</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>121.1971522780047</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>56.63307672503164</v>
@@ -3727,7 +3727,7 @@
         <v>80.06824696692647</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
     <row r="41">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.763751642754485</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S42" t="n">
         <v>144.0419631757947</v>
@@ -3898,7 +3898,7 @@
         <v>34.19057175982661</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>21.60541267651715</v>
       </c>
       <c r="D43" t="n">
         <v>2.97406459610167</v>
@@ -3907,16 +3907,16 @@
         <v>0.7925542244584847</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>21.10197969071359</v>
       </c>
       <c r="H43" t="n">
-        <v>5.493543737778712</v>
+        <v>5.493543737778714</v>
       </c>
       <c r="I43" t="n">
-        <v>117.9320036494505</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>121.1971522780047</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>56.63307672503164</v>
+        <v>154.8074180118184</v>
       </c>
       <c r="T43" t="n">
         <v>76.97356386573259</v>
@@ -3961,10 +3961,10 @@
         <v>140.8815899144803</v>
       </c>
       <c r="X43" t="n">
-        <v>80.06824696692647</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>77.40947831224686</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>237.0924332413698</v>
+        <v>237.0924332413699</v>
       </c>
       <c r="C44" t="n">
-        <v>219.6314833488968</v>
+        <v>219.6314833488969</v>
       </c>
       <c r="D44" t="n">
-        <v>209.0416331985722</v>
+        <v>209.0416331985723</v>
       </c>
       <c r="E44" t="n">
-        <v>236.288961650151</v>
+        <v>236.2889616501511</v>
       </c>
       <c r="F44" t="n">
-        <v>261.2346373196007</v>
+        <v>261.2346373196008</v>
       </c>
       <c r="G44" t="n">
-        <v>266.8800384220804</v>
+        <v>266.8800384220805</v>
       </c>
       <c r="H44" t="n">
-        <v>165.3495006098519</v>
+        <v>165.3495006098511</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>65.27934122996356</v>
+        <v>65.27934122996365</v>
       </c>
       <c r="U44" t="n">
-        <v>105.4817412320502</v>
+        <v>105.4817412320503</v>
       </c>
       <c r="V44" t="n">
-        <v>182.1108500480241</v>
+        <v>182.1108500480242</v>
       </c>
       <c r="W44" t="n">
-        <v>203.5995602953022</v>
+        <v>203.5995602953023</v>
       </c>
       <c r="X44" t="n">
         <v>224.0896922563583</v>
       </c>
       <c r="Y44" t="n">
-        <v>240.5965302339428</v>
+        <v>240.5965302339429</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.763751642754485</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S45" t="n">
         <v>144.0419631757947</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.19057175982653</v>
+        <v>34.19057175982661</v>
       </c>
       <c r="C46" t="n">
-        <v>21.60541267651706</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>2.974064596101584</v>
+        <v>100.9280454837088</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0.7925542244584847</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>21.10197969071351</v>
+        <v>21.10197969071359</v>
       </c>
       <c r="H46" t="n">
-        <v>5.493543737778626</v>
+        <v>5.493543737778714</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>56.63307672503156</v>
+        <v>56.63307672503164</v>
       </c>
       <c r="T46" t="n">
-        <v>76.9735638657325</v>
+        <v>76.97356386573259</v>
       </c>
       <c r="U46" t="n">
-        <v>238.7839117895883</v>
+        <v>286.2509789249108</v>
       </c>
       <c r="V46" t="n">
-        <v>106.4962349017172</v>
+        <v>106.4962349017173</v>
       </c>
       <c r="W46" t="n">
-        <v>140.8815899144802</v>
+        <v>140.8815899144803</v>
       </c>
       <c r="X46" t="n">
-        <v>80.06824696692638</v>
+        <v>80.06824696692647</v>
       </c>
       <c r="Y46" t="n">
-        <v>72.94324492998402</v>
+        <v>72.9432449299841</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1043.510856230043</v>
+        <v>1249.886986889919</v>
       </c>
       <c r="C11" t="n">
-        <v>1043.510856230043</v>
+        <v>1249.886986889919</v>
       </c>
       <c r="D11" t="n">
-        <v>1043.510856230043</v>
+        <v>971.8548349772159</v>
       </c>
       <c r="E11" t="n">
-        <v>737.9561503258465</v>
+        <v>971.8548349772159</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2037922302864</v>
+        <v>641.1024768816558</v>
       </c>
       <c r="G11" t="n">
-        <v>70.74900877868617</v>
+        <v>304.6476934300556</v>
       </c>
       <c r="H11" t="n">
-        <v>70.74900877868617</v>
+        <v>70.74900877868612</v>
       </c>
       <c r="I11" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J11" t="n">
         <v>268.5576303040251</v>
       </c>
       <c r="K11" t="n">
-        <v>400.9213749217365</v>
+        <v>604.5264307378718</v>
       </c>
       <c r="L11" t="n">
-        <v>978.7032366613114</v>
+        <v>805.6371221970178</v>
       </c>
       <c r="M11" t="n">
-        <v>1234.14706823545</v>
+        <v>1061.080953771156</v>
       </c>
       <c r="N11" t="n">
-        <v>1619.259942221213</v>
+        <v>1325.271941977301</v>
       </c>
       <c r="O11" t="n">
-        <v>1855.392739562406</v>
+        <v>1561.404739318494</v>
       </c>
       <c r="P11" t="n">
-        <v>2022.425618108814</v>
+        <v>2047.018338954669</v>
       </c>
       <c r="Q11" t="n">
-        <v>2309.879447798891</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R11" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S11" t="n">
-        <v>2334.472168644747</v>
+        <v>2267.593181579086</v>
       </c>
       <c r="T11" t="n">
-        <v>2225.550255024981</v>
+        <v>2253.043929916951</v>
       </c>
       <c r="U11" t="n">
-        <v>2225.550255024981</v>
+        <v>2079.617729485583</v>
       </c>
       <c r="V11" t="n">
-        <v>2225.550255024981</v>
+        <v>1828.78838883606</v>
       </c>
       <c r="W11" t="n">
-        <v>1953.015146448914</v>
+        <v>1556.253280259993</v>
       </c>
       <c r="X11" t="n">
-        <v>1659.782934881882</v>
+        <v>1556.253280259993</v>
       </c>
       <c r="Y11" t="n">
-        <v>1349.877149600118</v>
+        <v>1556.253280259993</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>771.7396230212132</v>
+        <v>911.928407359629</v>
       </c>
       <c r="C12" t="n">
-        <v>615.5546116889891</v>
+        <v>737.475378078502</v>
       </c>
       <c r="D12" t="n">
-        <v>466.6202020277379</v>
+        <v>588.5409684172507</v>
       </c>
       <c r="E12" t="n">
-        <v>307.3827470222824</v>
+        <v>429.3035134117953</v>
       </c>
       <c r="F12" t="n">
-        <v>241.0817357432148</v>
+        <v>282.7689554386802</v>
       </c>
       <c r="G12" t="n">
-        <v>103.854063560084</v>
+        <v>145.5412832555495</v>
       </c>
       <c r="H12" t="n">
-        <v>85.23577037147686</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="I12" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J12" t="n">
-        <v>60.30911088982451</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K12" t="n">
-        <v>423.5627013523598</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L12" t="n">
-        <v>606.2744364430107</v>
+        <v>917.9910073910041</v>
       </c>
       <c r="M12" t="n">
-        <v>838.8472815102762</v>
+        <v>1150.56385245827</v>
       </c>
       <c r="N12" t="n">
-        <v>1403.700853608115</v>
+        <v>1403.700853608114</v>
       </c>
       <c r="O12" t="n">
-        <v>1613.051960134166</v>
+        <v>1613.051960134165</v>
       </c>
       <c r="P12" t="n">
-        <v>2077.019754551161</v>
+        <v>2077.01975455116</v>
       </c>
       <c r="Q12" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R12" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S12" t="n">
-        <v>2188.975236143944</v>
+        <v>2269.208782837991</v>
       </c>
       <c r="T12" t="n">
-        <v>1992.847403881128</v>
+        <v>2073.080950575174</v>
       </c>
       <c r="U12" t="n">
-        <v>1764.722677277665</v>
+        <v>1844.956223971711</v>
       </c>
       <c r="V12" t="n">
-        <v>1529.570569045922</v>
+        <v>1609.804115739969</v>
       </c>
       <c r="W12" t="n">
-        <v>1355.566759011768</v>
+        <v>1435.800305705814</v>
       </c>
       <c r="X12" t="n">
-        <v>1147.715258806235</v>
+        <v>1227.948805500282</v>
       </c>
       <c r="Y12" t="n">
-        <v>939.9549600412813</v>
+        <v>1080.143744379697</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>539.1229485433557</v>
+        <v>539.122948543356</v>
       </c>
       <c r="C13" t="n">
-        <v>450.4203123094962</v>
+        <v>450.4203123094965</v>
       </c>
       <c r="D13" t="n">
-        <v>380.5372195912079</v>
+        <v>380.5372195912082</v>
       </c>
       <c r="E13" t="n">
-        <v>312.8576727028623</v>
+        <v>312.8576727028625</v>
       </c>
       <c r="F13" t="n">
-        <v>246.2012718989993</v>
+        <v>246.2012718989996</v>
       </c>
       <c r="G13" t="n">
         <v>158.0071538326182</v>
       </c>
       <c r="H13" t="n">
-        <v>85.57913268839353</v>
+        <v>85.5791326883935</v>
       </c>
       <c r="I13" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J13" t="n">
-        <v>120.2234082279187</v>
+        <v>120.2234082279185</v>
       </c>
       <c r="K13" t="n">
-        <v>320.3114555080081</v>
+        <v>320.3114555080078</v>
       </c>
       <c r="L13" t="n">
-        <v>609.8904447105131</v>
+        <v>609.8904447105128</v>
       </c>
       <c r="M13" t="n">
-        <v>921.3253246538486</v>
+        <v>921.3253246538484</v>
       </c>
       <c r="N13" t="n">
         <v>1232.659405364007</v>
@@ -5221,28 +5221,28 @@
         <v>1832.298320439747</v>
       </c>
       <c r="R13" t="n">
-        <v>1790.110501196415</v>
+        <v>1790.110501196416</v>
       </c>
       <c r="S13" t="n">
         <v>1666.026386125673</v>
       </c>
       <c r="T13" t="n">
-        <v>1521.396324448161</v>
+        <v>1521.396324448162</v>
       </c>
       <c r="U13" t="n">
-        <v>1312.487468187753</v>
+        <v>1312.487468187754</v>
       </c>
       <c r="V13" t="n">
         <v>1138.036526675914</v>
       </c>
       <c r="W13" t="n">
-        <v>928.8529033330005</v>
+        <v>928.8529033330009</v>
       </c>
       <c r="X13" t="n">
-        <v>781.0968991290306</v>
+        <v>781.096899129031</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.537866679548</v>
+        <v>640.5378666795483</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1174.138537776353</v>
+        <v>1253.349975475622</v>
       </c>
       <c r="C14" t="n">
-        <v>885.4095675299884</v>
+        <v>1253.349975475622</v>
       </c>
       <c r="D14" t="n">
-        <v>885.4095675299884</v>
+        <v>1253.349975475622</v>
       </c>
       <c r="E14" t="n">
-        <v>579.8548616257916</v>
+        <v>947.7952695714248</v>
       </c>
       <c r="F14" t="n">
-        <v>249.1025035302316</v>
+        <v>617.0429114758647</v>
       </c>
       <c r="G14" t="n">
-        <v>249.1025035302316</v>
+        <v>280.5881280242644</v>
       </c>
       <c r="H14" t="n">
-        <v>70.7490087786862</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="I14" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J14" t="n">
         <v>268.5576303040251</v>
       </c>
       <c r="K14" t="n">
-        <v>400.9213749217365</v>
+        <v>721.8253333671897</v>
       </c>
       <c r="L14" t="n">
-        <v>602.0320663808825</v>
+        <v>922.9360248263357</v>
       </c>
       <c r="M14" t="n">
-        <v>1013.419889616687</v>
+        <v>1178.379856400474</v>
       </c>
       <c r="N14" t="n">
-        <v>1277.610877822832</v>
+        <v>1442.570844606619</v>
       </c>
       <c r="O14" t="n">
-        <v>1855.392739562406</v>
+        <v>1678.703641947812</v>
       </c>
       <c r="P14" t="n">
-        <v>2022.425618108814</v>
+        <v>2047.018338954669</v>
       </c>
       <c r="Q14" t="n">
-        <v>2309.879447798891</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R14" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="S14" t="n">
-        <v>2334.472168644747</v>
+        <v>2267.593181579086</v>
       </c>
       <c r="T14" t="n">
-        <v>2334.472168644747</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="U14" t="n">
-        <v>2334.472168644747</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="V14" t="n">
-        <v>2083.642827995224</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="W14" t="n">
-        <v>2083.642827995224</v>
+        <v>2134.775465998311</v>
       </c>
       <c r="X14" t="n">
-        <v>1790.410616428191</v>
+        <v>1841.543254431278</v>
       </c>
       <c r="Y14" t="n">
-        <v>1480.504831146427</v>
+        <v>1531.637469149514</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>709.7740942760687</v>
+        <v>924.3645430327874</v>
       </c>
       <c r="C15" t="n">
-        <v>615.5546116889891</v>
+        <v>749.9115137516604</v>
       </c>
       <c r="D15" t="n">
-        <v>546.8537487217852</v>
+        <v>600.9771040904092</v>
       </c>
       <c r="E15" t="n">
-        <v>387.6162937163298</v>
+        <v>441.7396490849537</v>
       </c>
       <c r="F15" t="n">
-        <v>241.0817357432148</v>
+        <v>295.2050911118387</v>
       </c>
       <c r="G15" t="n">
-        <v>184.0876102541314</v>
+        <v>157.9774189287079</v>
       </c>
       <c r="H15" t="n">
-        <v>85.23577037147686</v>
+        <v>85.23577037147683</v>
       </c>
       <c r="I15" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J15" t="n">
-        <v>60.30911088982451</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K15" t="n">
-        <v>161.742116709907</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L15" t="n">
-        <v>711.5857936509824</v>
+        <v>917.9910073910041</v>
       </c>
       <c r="M15" t="n">
-        <v>1289.367655390557</v>
+        <v>1150.56385245827</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.52475420662</v>
+        <v>1403.700853608114</v>
       </c>
       <c r="O15" t="n">
-        <v>2136.306615946195</v>
+        <v>1613.051960134165</v>
       </c>
       <c r="P15" t="n">
-        <v>2284.996269409651</v>
+        <v>2077.01975455116</v>
       </c>
       <c r="Q15" t="n">
-        <v>2334.472168644747</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R15" t="n">
-        <v>2326.629995268227</v>
+        <v>2326.629995268226</v>
       </c>
       <c r="S15" t="n">
-        <v>2181.133062767424</v>
+        <v>2261.366609461471</v>
       </c>
       <c r="T15" t="n">
-        <v>1985.005230504608</v>
+        <v>2145.472323892702</v>
       </c>
       <c r="U15" t="n">
-        <v>1756.880503901145</v>
+        <v>1997.581143983286</v>
       </c>
       <c r="V15" t="n">
-        <v>1547.838586994825</v>
+        <v>1762.429035751544</v>
       </c>
       <c r="W15" t="n">
-        <v>1293.601230266623</v>
+        <v>1508.191679023342</v>
       </c>
       <c r="X15" t="n">
-        <v>1085.749730061091</v>
+        <v>1300.340178817809</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.9894312961367</v>
+        <v>1092.579880052856</v>
       </c>
     </row>
     <row r="16">
@@ -5416,34 +5416,34 @@
         <v>450.4203123094962</v>
       </c>
       <c r="D16" t="n">
-        <v>380.537219591208</v>
+        <v>380.5372195912079</v>
       </c>
       <c r="E16" t="n">
         <v>312.8576727028623</v>
       </c>
       <c r="F16" t="n">
-        <v>246.2012718989994</v>
+        <v>246.2012718989993</v>
       </c>
       <c r="G16" t="n">
         <v>158.0071538326182</v>
       </c>
       <c r="H16" t="n">
-        <v>85.57913268839353</v>
+        <v>85.5791326883935</v>
       </c>
       <c r="I16" t="n">
-        <v>46.68944337289494</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2234082279187</v>
+        <v>120.2234082279182</v>
       </c>
       <c r="K16" t="n">
-        <v>320.311455508008</v>
+        <v>320.3114555080076</v>
       </c>
       <c r="L16" t="n">
-        <v>609.890444710513</v>
+        <v>609.8904447105126</v>
       </c>
       <c r="M16" t="n">
-        <v>921.3253246538485</v>
+        <v>921.3253246538483</v>
       </c>
       <c r="N16" t="n">
         <v>1232.659405364007</v>
@@ -5458,22 +5458,22 @@
         <v>1832.298320439747</v>
       </c>
       <c r="R16" t="n">
-        <v>1790.110501196416</v>
+        <v>1790.110501196415</v>
       </c>
       <c r="S16" t="n">
         <v>1666.026386125673</v>
       </c>
       <c r="T16" t="n">
-        <v>1521.396324448162</v>
+        <v>1521.396324448161</v>
       </c>
       <c r="U16" t="n">
-        <v>1312.487468187754</v>
+        <v>1312.487468187753</v>
       </c>
       <c r="V16" t="n">
         <v>1138.036526675914</v>
       </c>
       <c r="W16" t="n">
-        <v>928.8529033330008</v>
+        <v>928.8529033330005</v>
       </c>
       <c r="X16" t="n">
         <v>781.0968991290306</v>
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1209.578508933202</v>
+        <v>1338.709817470404</v>
       </c>
       <c r="C17" t="n">
-        <v>1130.214393918088</v>
+        <v>1130.214393918087</v>
       </c>
       <c r="D17" t="n">
-        <v>932.4157886994319</v>
+        <v>932.4157886994317</v>
       </c>
       <c r="E17" t="n">
-        <v>707.0946294892825</v>
+        <v>707.0946294892823</v>
       </c>
       <c r="F17" t="n">
-        <v>456.5758180877698</v>
+        <v>456.5758180877697</v>
       </c>
       <c r="G17" t="n">
-        <v>200.3545813302169</v>
+        <v>200.354581330217</v>
       </c>
       <c r="H17" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="I17" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J17" t="n">
-        <v>101.1519812836721</v>
+        <v>268.5576303040251</v>
       </c>
       <c r="K17" t="n">
-        <v>233.5157259013837</v>
+        <v>400.9213749217366</v>
       </c>
       <c r="L17" t="n">
-        <v>811.2975876409585</v>
+        <v>602.0320663808826</v>
       </c>
       <c r="M17" t="n">
-        <v>1251.669921234944</v>
+        <v>857.475897955021</v>
       </c>
       <c r="N17" t="n">
-        <v>1829.451782974519</v>
+        <v>1121.666886161166</v>
       </c>
       <c r="O17" t="n">
-        <v>2065.584580315712</v>
+        <v>1699.44874790074</v>
       </c>
       <c r="P17" t="n">
-        <v>2232.617458862119</v>
+        <v>2185.062347536915</v>
       </c>
       <c r="Q17" t="n">
-        <v>2309.87944779889</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R17" t="n">
         <v>2334.472168644746</v>
@@ -5543,22 +5543,22 @@
         <v>2334.472168644746</v>
       </c>
       <c r="T17" t="n">
-        <v>2334.472168644746</v>
+        <v>2281.887999758018</v>
       </c>
       <c r="U17" t="n">
-        <v>2241.279514907426</v>
+        <v>2188.695346020698</v>
       </c>
       <c r="V17" t="n">
-        <v>2070.68372095195</v>
+        <v>2018.099552065222</v>
       </c>
       <c r="W17" t="n">
-        <v>1878.382159069931</v>
+        <v>1825.797990183203</v>
       </c>
       <c r="X17" t="n">
-        <v>1665.383494196946</v>
+        <v>1612.799325310218</v>
       </c>
       <c r="Y17" t="n">
-        <v>1435.711255609229</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="18">
@@ -5568,13 +5568,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>950.4747343582109</v>
+        <v>683.663902950645</v>
       </c>
       <c r="C18" t="n">
-        <v>776.0217050770839</v>
+        <v>509.210873669518</v>
       </c>
       <c r="D18" t="n">
-        <v>627.0872954158326</v>
+        <v>509.210873669518</v>
       </c>
       <c r="E18" t="n">
         <v>467.8498404103772</v>
@@ -5589,16 +5589,16 @@
         <v>85.23577037147683</v>
       </c>
       <c r="I18" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J18" t="n">
-        <v>185.1392358768293</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K18" t="n">
         <v>548.3928263393645</v>
       </c>
       <c r="L18" t="n">
-        <v>917.991007391004</v>
+        <v>917.9910073910041</v>
       </c>
       <c r="M18" t="n">
         <v>1150.56385245827</v>
@@ -5607,7 +5607,7 @@
         <v>1403.700853608114</v>
       </c>
       <c r="O18" t="n">
-        <v>1613.051960134166</v>
+        <v>1613.051960134165</v>
       </c>
       <c r="P18" t="n">
         <v>2077.01975455116</v>
@@ -5616,28 +5616,28 @@
         <v>2334.472168644746</v>
       </c>
       <c r="R18" t="n">
-        <v>2334.472168644746</v>
+        <v>2326.629995268226</v>
       </c>
       <c r="S18" t="n">
-        <v>2188.975236143944</v>
+        <v>2181.133062767423</v>
       </c>
       <c r="T18" t="n">
-        <v>1992.847403881127</v>
+        <v>1985.005230504607</v>
       </c>
       <c r="U18" t="n">
-        <v>1863.224241920615</v>
+        <v>1756.880503901144</v>
       </c>
       <c r="V18" t="n">
-        <v>1788.539227076967</v>
+        <v>1521.728395669401</v>
       </c>
       <c r="W18" t="n">
-        <v>1534.301870348766</v>
+        <v>1267.4910389412</v>
       </c>
       <c r="X18" t="n">
-        <v>1326.450370143233</v>
+        <v>1059.639538735667</v>
       </c>
       <c r="Y18" t="n">
-        <v>1118.690071378279</v>
+        <v>851.8792399707131</v>
       </c>
     </row>
     <row r="19">
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>278.2526959040024</v>
+        <v>438.7197892920969</v>
       </c>
       <c r="C19" t="n">
-        <v>269.7836063641903</v>
+        <v>269.7836063641901</v>
       </c>
       <c r="D19" t="n">
-        <v>269.7836063641903</v>
+        <v>119.6669669518543</v>
       </c>
       <c r="E19" t="n">
-        <v>121.8705127817972</v>
+        <v>54.65001474522866</v>
       </c>
       <c r="F19" t="n">
-        <v>121.8705127817972</v>
+        <v>54.65001474522866</v>
       </c>
       <c r="G19" t="n">
-        <v>113.9099414094635</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="H19" t="n">
-        <v>51.89598786816286</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="I19" t="n">
-        <v>51.89598786816286</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J19" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="K19" t="n">
         <v>168.1405915381484</v>
       </c>
       <c r="L19" t="n">
-        <v>379.0826816258176</v>
+        <v>379.0826816258175</v>
       </c>
       <c r="M19" t="n">
-        <v>611.8806624543173</v>
+        <v>611.8806624543172</v>
       </c>
       <c r="N19" t="n">
-        <v>844.5778440496401</v>
+        <v>844.5778440496399</v>
       </c>
       <c r="O19" t="n">
         <v>1043.495058868663</v>
@@ -5698,25 +5698,25 @@
         <v>1208.306061780872</v>
       </c>
       <c r="S19" t="n">
-        <v>1003.988400016082</v>
+        <v>1164.455493404177</v>
       </c>
       <c r="T19" t="n">
-        <v>939.5918850326181</v>
+        <v>1100.058978420713</v>
       </c>
       <c r="U19" t="n">
-        <v>650.4494820781626</v>
+        <v>810.9165754662573</v>
       </c>
       <c r="V19" t="n">
-        <v>556.2320872603707</v>
+        <v>716.6991806484652</v>
       </c>
       <c r="W19" t="n">
-        <v>427.2820106115049</v>
+        <v>587.7491039995995</v>
       </c>
       <c r="X19" t="n">
-        <v>359.7595531015825</v>
+        <v>520.226646489677</v>
       </c>
       <c r="Y19" t="n">
-        <v>299.4340673461472</v>
+        <v>459.9011607342418</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1327.59013400195</v>
+        <v>1338.709817470404</v>
       </c>
       <c r="C20" t="n">
-        <v>1119.094710449634</v>
+        <v>1130.214393918087</v>
       </c>
       <c r="D20" t="n">
         <v>932.4157886994318</v>
@@ -5741,37 +5741,37 @@
         <v>456.5758180877697</v>
       </c>
       <c r="G20" t="n">
-        <v>200.3545813302169</v>
+        <v>200.354581330217</v>
       </c>
       <c r="H20" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="I20" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J20" t="n">
-        <v>268.5576303040252</v>
+        <v>268.5576303040251</v>
       </c>
       <c r="K20" t="n">
-        <v>400.9213749217367</v>
+        <v>604.5264307378718</v>
       </c>
       <c r="L20" t="n">
-        <v>602.0320663808828</v>
+        <v>805.6371221970178</v>
       </c>
       <c r="M20" t="n">
-        <v>1179.813928120458</v>
+        <v>1061.080953771156</v>
       </c>
       <c r="N20" t="n">
-        <v>1444.004916326602</v>
+        <v>1325.271941977301</v>
       </c>
       <c r="O20" t="n">
-        <v>1680.137713667795</v>
+        <v>1561.404739318494</v>
       </c>
       <c r="P20" t="n">
-        <v>2165.751313303971</v>
+        <v>2047.018338954669</v>
       </c>
       <c r="Q20" t="n">
-        <v>2309.87944779889</v>
+        <v>2334.472168644746</v>
       </c>
       <c r="R20" t="n">
         <v>2334.472168644746</v>
@@ -5786,16 +5786,16 @@
         <v>2188.695346020698</v>
       </c>
       <c r="V20" t="n">
-        <v>2188.695346020698</v>
+        <v>2018.099552065222</v>
       </c>
       <c r="W20" t="n">
-        <v>1996.393784138679</v>
+        <v>2007.513467607133</v>
       </c>
       <c r="X20" t="n">
-        <v>1783.395119265694</v>
+        <v>1794.514802734148</v>
       </c>
       <c r="Y20" t="n">
-        <v>1553.722880677977</v>
+        <v>1564.842564146431</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>844.1309963387403</v>
+        <v>829.1608354514481</v>
       </c>
       <c r="C21" t="n">
-        <v>669.6779670576133</v>
+        <v>654.7078061703211</v>
       </c>
       <c r="D21" t="n">
-        <v>528.2354555331781</v>
+        <v>505.7733965090698</v>
       </c>
       <c r="E21" t="n">
-        <v>368.9980005277226</v>
+        <v>346.5359415036143</v>
       </c>
       <c r="F21" t="n">
-        <v>222.4634425546076</v>
+        <v>321.3152824372622</v>
       </c>
       <c r="G21" t="n">
-        <v>85.23577037147683</v>
+        <v>184.0876102541314</v>
       </c>
       <c r="H21" t="n">
         <v>85.23577037147683</v>
       </c>
       <c r="I21" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J21" t="n">
-        <v>60.30911088982455</v>
+        <v>185.1392358768292</v>
       </c>
       <c r="K21" t="n">
-        <v>423.5627013523598</v>
+        <v>548.3928263393645</v>
       </c>
       <c r="L21" t="n">
-        <v>727.6058913172004</v>
+        <v>917.9910073910041</v>
       </c>
       <c r="M21" t="n">
-        <v>1305.387753056775</v>
+        <v>1150.56385245827</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.524754206619</v>
+        <v>1403.700853608114</v>
       </c>
       <c r="O21" t="n">
-        <v>2136.306615946194</v>
+        <v>1613.051960134165</v>
       </c>
       <c r="P21" t="n">
-        <v>2284.996269409651</v>
+        <v>2077.01975455116</v>
       </c>
       <c r="Q21" t="n">
         <v>2334.472168644746</v>
       </c>
       <c r="R21" t="n">
-        <v>2326.629995268227</v>
+        <v>2326.629995268226</v>
       </c>
       <c r="S21" t="n">
-        <v>2181.133062767424</v>
+        <v>2326.629995268226</v>
       </c>
       <c r="T21" t="n">
-        <v>1985.005230504607</v>
+        <v>2130.50216300541</v>
       </c>
       <c r="U21" t="n">
-        <v>1756.880503901144</v>
+        <v>1902.377436401947</v>
       </c>
       <c r="V21" t="n">
-        <v>1521.728395669402</v>
+        <v>1667.225328170204</v>
       </c>
       <c r="W21" t="n">
-        <v>1267.4910389412</v>
+        <v>1412.987971442003</v>
       </c>
       <c r="X21" t="n">
-        <v>1220.106632123762</v>
+        <v>1205.13647123647</v>
       </c>
       <c r="Y21" t="n">
-        <v>1012.346333358808</v>
+        <v>997.3761724715162</v>
       </c>
     </row>
     <row r="22">
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>438.7197892920975</v>
+        <v>63.11910428504073</v>
       </c>
       <c r="C22" t="n">
-        <v>269.7836063641906</v>
+        <v>54.65001474522866</v>
       </c>
       <c r="D22" t="n">
-        <v>215.1171081333235</v>
+        <v>54.65001474522866</v>
       </c>
       <c r="E22" t="n">
-        <v>215.1171081333235</v>
+        <v>54.65001474522866</v>
       </c>
       <c r="F22" t="n">
-        <v>215.1171081333235</v>
+        <v>54.65001474522866</v>
       </c>
       <c r="G22" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="H22" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="I22" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="J22" t="n">
-        <v>46.68944337289493</v>
+        <v>46.68944337289492</v>
       </c>
       <c r="K22" t="n">
         <v>168.1405915381484</v>
       </c>
       <c r="L22" t="n">
-        <v>379.0826816258176</v>
+        <v>379.0826816258175</v>
       </c>
       <c r="M22" t="n">
-        <v>611.8806624543173</v>
+        <v>611.8806624543172</v>
       </c>
       <c r="N22" t="n">
-        <v>844.5778440496401</v>
+        <v>844.5778440496399</v>
       </c>
       <c r="O22" t="n">
         <v>1043.495058868663</v>
@@ -5932,28 +5932,28 @@
         <v>1208.306061780872</v>
       </c>
       <c r="R22" t="n">
-        <v>1208.306061780872</v>
+        <v>1153.639563550006</v>
       </c>
       <c r="S22" t="n">
-        <v>1164.455493404177</v>
+        <v>949.3219017852155</v>
       </c>
       <c r="T22" t="n">
-        <v>1100.058978420713</v>
+        <v>884.9253868017514</v>
       </c>
       <c r="U22" t="n">
-        <v>971.3836688543527</v>
+        <v>595.782983847296</v>
       </c>
       <c r="V22" t="n">
-        <v>877.1662740365607</v>
+        <v>501.5655890295039</v>
       </c>
       <c r="W22" t="n">
-        <v>748.2161973876949</v>
+        <v>372.6155123806382</v>
       </c>
       <c r="X22" t="n">
-        <v>680.6937398777725</v>
+        <v>144.6259614826209</v>
       </c>
       <c r="Y22" t="n">
-        <v>620.3682541223372</v>
+        <v>84.3004757271856</v>
       </c>
     </row>
     <row r="23">
@@ -5969,52 +5969,52 @@
         <v>1133.922873049188</v>
       </c>
       <c r="D23" t="n">
-        <v>936.1242678305323</v>
+        <v>936.1242678305321</v>
       </c>
       <c r="E23" t="n">
-        <v>710.8031086203832</v>
+        <v>710.8031086203828</v>
       </c>
       <c r="F23" t="n">
         <v>460.2842972188705</v>
       </c>
       <c r="G23" t="n">
-        <v>204.0630604613175</v>
+        <v>204.0630604613176</v>
       </c>
       <c r="H23" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="I23" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="J23" t="n">
-        <v>104.8604604147727</v>
+        <v>272.2661094351257</v>
       </c>
       <c r="K23" t="n">
-        <v>237.2242050324843</v>
+        <v>725.5338124982903</v>
       </c>
       <c r="L23" t="n">
-        <v>851.8194988965763</v>
+        <v>1340.129106362382</v>
       </c>
       <c r="M23" t="n">
-        <v>1107.263330470715</v>
+        <v>1595.57293793652</v>
       </c>
       <c r="N23" t="n">
-        <v>1371.454318676859</v>
+        <v>1859.763926142665</v>
       </c>
       <c r="O23" t="n">
-        <v>1984.579295468171</v>
+        <v>2095.896723483858</v>
       </c>
       <c r="P23" t="n">
-        <v>2442.634136263005</v>
+        <v>2262.929602030265</v>
       </c>
       <c r="Q23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="R23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="S23" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="T23" t="n">
         <v>2467.311956313049</v>
@@ -6023,13 +6023,13 @@
         <v>2374.119302575728</v>
       </c>
       <c r="V23" t="n">
-        <v>2203.523508620253</v>
+        <v>2203.523508620252</v>
       </c>
       <c r="W23" t="n">
-        <v>2011.221946738234</v>
+        <v>2011.221946738233</v>
       </c>
       <c r="X23" t="n">
-        <v>1798.223281865249</v>
+        <v>1798.223281865248</v>
       </c>
       <c r="Y23" t="n">
         <v>1568.551043277532</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>915.6368864907296</v>
+        <v>954.1832134893115</v>
       </c>
       <c r="C24" t="n">
-        <v>741.1838572096026</v>
+        <v>779.7301842081845</v>
       </c>
       <c r="D24" t="n">
-        <v>592.2494475483513</v>
+        <v>630.7957745469332</v>
       </c>
       <c r="E24" t="n">
-        <v>433.0119925428959</v>
+        <v>471.5583195414778</v>
       </c>
       <c r="F24" t="n">
-        <v>286.4774345697808</v>
+        <v>325.0237615683628</v>
       </c>
       <c r="G24" t="n">
-        <v>149.2497623866501</v>
+        <v>187.796089385232</v>
       </c>
       <c r="H24" t="n">
-        <v>50.39792250399552</v>
+        <v>88.94424950257743</v>
       </c>
       <c r="I24" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="J24" t="n">
         <v>188.8477150079299</v>
@@ -6072,46 +6072,46 @@
         <v>552.1013054704651</v>
       </c>
       <c r="L24" t="n">
-        <v>734.8130405611162</v>
+        <v>1101.944982411541</v>
       </c>
       <c r="M24" t="n">
-        <v>1261.342253882875</v>
+        <v>1335.9878090133</v>
       </c>
       <c r="N24" t="n">
-        <v>1514.479255032719</v>
+        <v>1589.124810163145</v>
       </c>
       <c r="O24" t="n">
-        <v>2113.754057642733</v>
+        <v>1798.475916689196</v>
       </c>
       <c r="P24" t="n">
         <v>2262.44371110619</v>
       </c>
       <c r="Q24" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="R24" t="n">
-        <v>2519.896125199776</v>
+        <v>2519.896125199777</v>
       </c>
       <c r="S24" t="n">
-        <v>2413.106046307507</v>
+        <v>2451.652373306089</v>
       </c>
       <c r="T24" t="n">
-        <v>2216.978214044691</v>
+        <v>2255.524541043273</v>
       </c>
       <c r="U24" t="n">
-        <v>1988.853487441228</v>
+        <v>2027.39981443981</v>
       </c>
       <c r="V24" t="n">
-        <v>1753.701379209486</v>
+        <v>1792.247706208068</v>
       </c>
       <c r="W24" t="n">
-        <v>1499.464022481284</v>
+        <v>1538.010349479866</v>
       </c>
       <c r="X24" t="n">
-        <v>1291.612522275751</v>
+        <v>1330.158849274333</v>
       </c>
       <c r="Y24" t="n">
-        <v>1083.852223510798</v>
+        <v>1122.398550509379</v>
       </c>
     </row>
     <row r="25">
@@ -6121,43 +6121,43 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.4940816470084</v>
+        <v>66.82758341614134</v>
       </c>
       <c r="C25" t="n">
-        <v>58.35849387632923</v>
+        <v>58.35849387632926</v>
       </c>
       <c r="D25" t="n">
-        <v>58.35849387632923</v>
+        <v>58.35849387632926</v>
       </c>
       <c r="E25" t="n">
-        <v>58.35849387632923</v>
+        <v>58.35849387632926</v>
       </c>
       <c r="F25" t="n">
-        <v>58.35849387632923</v>
+        <v>58.35849387632926</v>
       </c>
       <c r="G25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="H25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="I25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="J25" t="n">
-        <v>50.39792250399552</v>
+        <v>50.39792250399553</v>
       </c>
       <c r="K25" t="n">
         <v>171.849070669249</v>
       </c>
       <c r="L25" t="n">
-        <v>382.7911607569182</v>
+        <v>382.7911607569181</v>
       </c>
       <c r="M25" t="n">
-        <v>615.5891415854179</v>
+        <v>615.5891415854178</v>
       </c>
       <c r="N25" t="n">
-        <v>848.2863231807407</v>
+        <v>848.2863231807405</v>
       </c>
       <c r="O25" t="n">
         <v>1047.203537999764</v>
@@ -6172,25 +6172,25 @@
         <v>1212.014540911973</v>
       </c>
       <c r="S25" t="n">
-        <v>1168.163972535278</v>
+        <v>1168.163972535277</v>
       </c>
       <c r="T25" t="n">
-        <v>1103.767457551814</v>
+        <v>1103.767457551813</v>
       </c>
       <c r="U25" t="n">
-        <v>975.0921479854533</v>
+        <v>920.4256497545863</v>
       </c>
       <c r="V25" t="n">
-        <v>720.4076597795664</v>
+        <v>665.7411615486994</v>
       </c>
       <c r="W25" t="n">
-        <v>430.9904897426058</v>
+        <v>376.3239915117388</v>
       </c>
       <c r="X25" t="n">
-        <v>203.0009388445885</v>
+        <v>308.8015340018163</v>
       </c>
       <c r="Y25" t="n">
-        <v>142.6754530891532</v>
+        <v>88.0089548582862</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1871.021482161255</v>
+        <v>1871.021482161256</v>
       </c>
       <c r="C26" t="n">
         <v>1582.292511914891</v>
@@ -6209,37 +6209,37 @@
         <v>1304.260360002188</v>
       </c>
       <c r="E26" t="n">
-        <v>998.7056540979912</v>
+        <v>998.7056540979913</v>
       </c>
       <c r="F26" t="n">
         <v>667.9532960024312</v>
       </c>
       <c r="G26" t="n">
-        <v>331.4985125508309</v>
+        <v>331.498512550831</v>
       </c>
       <c r="H26" t="n">
-        <v>97.59982789946162</v>
+        <v>97.5998278994617</v>
       </c>
       <c r="I26" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J26" t="n">
         <v>295.4084494248006</v>
       </c>
       <c r="K26" t="n">
-        <v>748.6761524879653</v>
+        <v>748.6761524879652</v>
       </c>
       <c r="L26" t="n">
         <v>1363.271446352057</v>
       </c>
       <c r="M26" t="n">
-        <v>1912.236996281716</v>
+        <v>2063.733676084099</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.401439655725</v>
+        <v>2760.898119458108</v>
       </c>
       <c r="O26" t="n">
-        <v>3222.526416447035</v>
+        <v>2997.030916799301</v>
       </c>
       <c r="P26" t="n">
         <v>3389.559294993443</v>
@@ -6257,16 +6257,16 @@
         <v>3477.316422037085</v>
       </c>
       <c r="U26" t="n">
-        <v>3303.890221605716</v>
+        <v>3303.890221605717</v>
       </c>
       <c r="V26" t="n">
-        <v>3053.060880956193</v>
+        <v>3053.060880956194</v>
       </c>
       <c r="W26" t="n">
-        <v>2780.525772380126</v>
+        <v>2780.525772380127</v>
       </c>
       <c r="X26" t="n">
-        <v>2487.293560813094</v>
+        <v>2487.293560813095</v>
       </c>
       <c r="Y26" t="n">
         <v>2177.38777553133</v>
@@ -6300,22 +6300,22 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I27" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J27" t="n">
-        <v>211.9900549976048</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K27" t="n">
-        <v>313.4230608176873</v>
+        <v>575.24364546014</v>
       </c>
       <c r="L27" t="n">
-        <v>750.6046448068446</v>
+        <v>1125.087322401216</v>
       </c>
       <c r="M27" t="n">
-        <v>1444.22550298661</v>
+        <v>1357.660167468481</v>
       </c>
       <c r="N27" t="n">
-        <v>1697.362504136454</v>
+        <v>1610.797168618325</v>
       </c>
       <c r="O27" t="n">
         <v>1906.713610662506</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>565.9737676641316</v>
+        <v>565.9737676641315</v>
       </c>
       <c r="C28" t="n">
-        <v>477.2711314302721</v>
+        <v>477.271131430272</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3880387119838</v>
+        <v>407.3880387119837</v>
       </c>
       <c r="E28" t="n">
-        <v>339.7084918236382</v>
+        <v>339.7084918236379</v>
       </c>
       <c r="F28" t="n">
-        <v>273.0520910197752</v>
+        <v>273.0520910197749</v>
       </c>
       <c r="G28" t="n">
-        <v>184.8579729533941</v>
+        <v>184.8579729533938</v>
       </c>
       <c r="H28" t="n">
         <v>112.429951809169</v>
       </c>
       <c r="I28" t="n">
-        <v>73.5402624936704</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J28" t="n">
-        <v>147.0742273486942</v>
+        <v>147.0742273486941</v>
       </c>
       <c r="K28" t="n">
-        <v>347.1622746287838</v>
+        <v>347.1622746287834</v>
       </c>
       <c r="L28" t="n">
-        <v>636.7412638312886</v>
+        <v>636.7412638312884</v>
       </c>
       <c r="M28" t="n">
         <v>948.1761437746241</v>
@@ -6406,7 +6406,7 @@
         <v>1859.149139560523</v>
       </c>
       <c r="R28" t="n">
-        <v>1816.961320317192</v>
+        <v>1816.961320317191</v>
       </c>
       <c r="S28" t="n">
         <v>1692.877205246449</v>
@@ -6418,13 +6418,13 @@
         <v>1339.338287308529</v>
       </c>
       <c r="V28" t="n">
-        <v>1164.88734579669</v>
+        <v>1164.887345796689</v>
       </c>
       <c r="W28" t="n">
-        <v>955.7037224537767</v>
+        <v>955.7037224537764</v>
       </c>
       <c r="X28" t="n">
-        <v>807.9477182498067</v>
+        <v>807.9477182498065</v>
       </c>
       <c r="Y28" t="n">
         <v>667.3886858003239</v>
@@ -6446,49 +6446,49 @@
         <v>1304.260360002188</v>
       </c>
       <c r="E29" t="n">
-        <v>998.7056540979911</v>
+        <v>998.7056540979913</v>
       </c>
       <c r="F29" t="n">
-        <v>667.9532960024312</v>
+        <v>667.9532960024314</v>
       </c>
       <c r="G29" t="n">
-        <v>331.4985125508309</v>
+        <v>331.4985125508311</v>
       </c>
       <c r="H29" t="n">
-        <v>97.59982789946173</v>
+        <v>97.59982789946166</v>
       </c>
       <c r="I29" t="n">
-        <v>73.54026249367043</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J29" t="n">
-        <v>128.0028004044476</v>
+        <v>295.4084494248006</v>
       </c>
       <c r="K29" t="n">
-        <v>581.2705034676123</v>
+        <v>748.6761524879652</v>
       </c>
       <c r="L29" t="n">
-        <v>1195.865797331704</v>
+        <v>1338.212443617809</v>
       </c>
       <c r="M29" t="n">
-        <v>1887.644275435861</v>
+        <v>1593.656275191948</v>
       </c>
       <c r="N29" t="n">
-        <v>2584.80871880987</v>
+        <v>2290.820718565957</v>
       </c>
       <c r="O29" t="n">
-        <v>3197.933695601181</v>
+        <v>2903.945695357268</v>
       </c>
       <c r="P29" t="n">
-        <v>3364.966574147588</v>
+        <v>3389.559294993443</v>
       </c>
       <c r="Q29" t="n">
-        <v>3652.420403837665</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="R29" t="n">
-        <v>3677.013124683521</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="S29" t="n">
-        <v>3610.134137617861</v>
+        <v>3610.13413761786</v>
       </c>
       <c r="T29" t="n">
         <v>3477.316422037085</v>
@@ -6537,25 +6537,25 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I30" t="n">
-        <v>73.54026249367043</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J30" t="n">
-        <v>211.9900549976048</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K30" t="n">
-        <v>313.4230608176873</v>
+        <v>575.24364546014</v>
       </c>
       <c r="L30" t="n">
-        <v>863.2667377587629</v>
+        <v>1125.087322401216</v>
       </c>
       <c r="M30" t="n">
-        <v>1095.839582826029</v>
+        <v>1357.660167468481</v>
       </c>
       <c r="N30" t="n">
-        <v>1823.525534575991</v>
+        <v>1610.797168618325</v>
       </c>
       <c r="O30" t="n">
-        <v>2032.876641102043</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P30" t="n">
         <v>2370.681405079501</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.9737676641311</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C31" t="n">
-        <v>477.2711314302715</v>
+        <v>477.2711314302717</v>
       </c>
       <c r="D31" t="n">
-        <v>407.3880387119831</v>
+        <v>407.3880387119834</v>
       </c>
       <c r="E31" t="n">
-        <v>339.7084918236373</v>
+        <v>339.7084918236378</v>
       </c>
       <c r="F31" t="n">
-        <v>273.0520910197743</v>
+        <v>273.0520910197748</v>
       </c>
       <c r="G31" t="n">
-        <v>184.8579729533931</v>
+        <v>184.8579729533937</v>
       </c>
       <c r="H31" t="n">
-        <v>112.4299518091691</v>
+        <v>112.429951809169</v>
       </c>
       <c r="I31" t="n">
-        <v>73.54026249367043</v>
+        <v>73.5402624936704</v>
       </c>
       <c r="J31" t="n">
         <v>147.0742273486942</v>
@@ -6637,7 +6637,7 @@
         <v>1537.064338418641</v>
       </c>
       <c r="P31" t="n">
-        <v>1762.388596593011</v>
+        <v>1762.388596593012</v>
       </c>
       <c r="Q31" t="n">
         <v>1859.149139560522</v>
@@ -6658,10 +6658,10 @@
         <v>1164.887345796689</v>
       </c>
       <c r="W31" t="n">
-        <v>955.7037224537758</v>
+        <v>955.703722453776</v>
       </c>
       <c r="X31" t="n">
-        <v>807.9477182498058</v>
+        <v>807.947718249806</v>
       </c>
       <c r="Y31" t="n">
         <v>667.3886858003234</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1871.021482161256</v>
+        <v>1871.021482161255</v>
       </c>
       <c r="C32" t="n">
-        <v>1582.292511914892</v>
+        <v>1582.292511914891</v>
       </c>
       <c r="D32" t="n">
-        <v>1304.260360002189</v>
+        <v>1304.260360002188</v>
       </c>
       <c r="E32" t="n">
-        <v>998.7056540979918</v>
+        <v>998.7056540979911</v>
       </c>
       <c r="F32" t="n">
-        <v>667.9532960024317</v>
+        <v>667.9532960024312</v>
       </c>
       <c r="G32" t="n">
-        <v>331.4985125508313</v>
+        <v>331.498512550831</v>
       </c>
       <c r="H32" t="n">
-        <v>97.59982789946173</v>
+        <v>97.59982789946169</v>
       </c>
       <c r="I32" t="n">
-        <v>73.54026249367043</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J32" t="n">
-        <v>295.4084494248007</v>
+        <v>295.4084494248006</v>
       </c>
       <c r="K32" t="n">
-        <v>748.6761524879653</v>
+        <v>748.6761524879652</v>
       </c>
       <c r="L32" t="n">
-        <v>1103.385886213212</v>
+        <v>1363.271446352057</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.848115945255</v>
+        <v>1618.715277926195</v>
       </c>
       <c r="N32" t="n">
-        <v>2501.012559319264</v>
+        <v>2266.227997720101</v>
       </c>
       <c r="O32" t="n">
-        <v>3114.137536110575</v>
+        <v>2879.352974511412</v>
       </c>
       <c r="P32" t="n">
-        <v>3599.75113574675</v>
+        <v>3364.966574147587</v>
       </c>
       <c r="Q32" t="n">
-        <v>3677.013124683521</v>
+        <v>3652.420403837664</v>
       </c>
       <c r="R32" t="n">
-        <v>3677.013124683521</v>
+        <v>3677.01312468352</v>
       </c>
       <c r="S32" t="n">
-        <v>3610.134137617861</v>
+        <v>3610.13413761786</v>
       </c>
       <c r="T32" t="n">
-        <v>3477.316422037086</v>
+        <v>3477.316422037085</v>
       </c>
       <c r="U32" t="n">
-        <v>3303.890221605717</v>
+        <v>3303.890221605716</v>
       </c>
       <c r="V32" t="n">
-        <v>3053.060880956194</v>
+        <v>3053.060880956193</v>
       </c>
       <c r="W32" t="n">
-        <v>2780.525772380127</v>
+        <v>2780.525772380126</v>
       </c>
       <c r="X32" t="n">
-        <v>2487.293560813095</v>
+        <v>2487.293560813094</v>
       </c>
       <c r="Y32" t="n">
-        <v>2177.387775531331</v>
+        <v>2177.38777553133</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>112.0865894922523</v>
       </c>
       <c r="I33" t="n">
-        <v>73.54026249367043</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J33" t="n">
-        <v>87.15993001060005</v>
+        <v>211.9900549976047</v>
       </c>
       <c r="K33" t="n">
-        <v>188.5929358306826</v>
+        <v>575.24364546014</v>
       </c>
       <c r="L33" t="n">
-        <v>371.3046709213336</v>
+        <v>1125.087322401216</v>
       </c>
       <c r="M33" t="n">
-        <v>1064.925529101099</v>
+        <v>1444.225502986611</v>
       </c>
       <c r="N33" t="n">
-        <v>1792.611480851062</v>
+        <v>1697.362504136455</v>
       </c>
       <c r="O33" t="n">
-        <v>2391.886283461075</v>
+        <v>1906.713610662506</v>
       </c>
       <c r="P33" t="n">
-        <v>2540.575936924532</v>
+        <v>2370.681405079501</v>
       </c>
       <c r="Q33" t="n">
         <v>2628.133819173087</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>565.9737676641319</v>
+        <v>565.9737676641312</v>
       </c>
       <c r="C34" t="n">
-        <v>477.2711314302722</v>
+        <v>477.2711314302716</v>
       </c>
       <c r="D34" t="n">
-        <v>407.3880387119839</v>
+        <v>407.3880387119833</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7084918236381</v>
+        <v>339.7084918236376</v>
       </c>
       <c r="F34" t="n">
-        <v>273.0520910197751</v>
+        <v>273.0520910197747</v>
       </c>
       <c r="G34" t="n">
-        <v>184.8579729533939</v>
+        <v>184.8579729533935</v>
       </c>
       <c r="H34" t="n">
-        <v>112.4299518091691</v>
+        <v>112.429951809169</v>
       </c>
       <c r="I34" t="n">
-        <v>73.54026249367043</v>
+        <v>73.54026249367041</v>
       </c>
       <c r="J34" t="n">
-        <v>147.0742273486941</v>
+        <v>147.0742273486942</v>
       </c>
       <c r="K34" t="n">
         <v>347.1622746287835</v>
       </c>
       <c r="L34" t="n">
-        <v>636.7412638312885</v>
+        <v>636.7412638312883</v>
       </c>
       <c r="M34" t="n">
-        <v>948.1761437746241</v>
+        <v>948.1761437746238</v>
       </c>
       <c r="N34" t="n">
         <v>1259.510224484783</v>
       </c>
       <c r="O34" t="n">
-        <v>1537.064338418643</v>
+        <v>1537.064338418641</v>
       </c>
       <c r="P34" t="n">
-        <v>1762.388596593013</v>
+        <v>1762.388596593011</v>
       </c>
       <c r="Q34" t="n">
-        <v>1859.149139560524</v>
+        <v>1859.149139560522</v>
       </c>
       <c r="R34" t="n">
-        <v>1816.961320317192</v>
+        <v>1816.961320317191</v>
       </c>
       <c r="S34" t="n">
         <v>1692.877205246449</v>
       </c>
       <c r="T34" t="n">
-        <v>1548.247143568938</v>
+        <v>1548.247143568937</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.33828730853</v>
+        <v>1339.338287308529</v>
       </c>
       <c r="V34" t="n">
-        <v>1164.88734579669</v>
+        <v>1164.887345796689</v>
       </c>
       <c r="W34" t="n">
-        <v>955.7037224537769</v>
+        <v>955.703722453776</v>
       </c>
       <c r="X34" t="n">
-        <v>807.9477182498069</v>
+        <v>807.9477182498063</v>
       </c>
       <c r="Y34" t="n">
-        <v>667.3886858003242</v>
+        <v>667.3886858003235</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1426.088700803848</v>
+        <v>1426.088700803849</v>
       </c>
       <c r="C35" t="n">
-        <v>1204.238717623144</v>
+        <v>1204.238717623145</v>
       </c>
       <c r="D35" t="n">
-        <v>993.0855527761015</v>
+        <v>993.0855527761024</v>
       </c>
       <c r="E35" t="n">
-        <v>754.4098339375651</v>
+        <v>754.409833937566</v>
       </c>
       <c r="F35" t="n">
-        <v>490.5364629076653</v>
+        <v>490.5364629076662</v>
       </c>
       <c r="G35" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J35" t="n">
-        <v>255.8629665703642</v>
+        <v>275.8091558671468</v>
       </c>
       <c r="K35" t="n">
-        <v>388.2267111880758</v>
+        <v>729.0768589303113</v>
       </c>
       <c r="L35" t="n">
-        <v>589.3374026472219</v>
+        <v>930.1875503894573</v>
       </c>
       <c r="M35" t="n">
-        <v>1256.856893230427</v>
+        <v>1185.631381963596</v>
       </c>
       <c r="N35" t="n">
-        <v>1521.047881436572</v>
+        <v>1853.150872546801</v>
       </c>
       <c r="O35" t="n">
-        <v>2134.172858227883</v>
+        <v>2089.283669887994</v>
       </c>
       <c r="P35" t="n">
-        <v>2619.786457864058</v>
+        <v>2574.897269524169</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.048446800829</v>
+        <v>2697.04844680083</v>
       </c>
       <c r="T35" t="n">
-        <v>2631.109718285715</v>
+        <v>2631.109718285716</v>
       </c>
       <c r="U35" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920008</v>
       </c>
       <c r="V35" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336145</v>
       </c>
       <c r="W35" t="n">
-        <v>2134.956029825738</v>
+        <v>2134.956029825739</v>
       </c>
       <c r="X35" t="n">
-        <v>1908.602805324366</v>
+        <v>1908.602805324367</v>
       </c>
       <c r="Y35" t="n">
-        <v>1665.576007108262</v>
+        <v>1665.576007108263</v>
       </c>
     </row>
     <row r="36">
@@ -7005,34 +7005,34 @@
         <v>328.5668080003838</v>
       </c>
       <c r="G36" t="n">
-        <v>191.339135817253</v>
+        <v>191.3391358172531</v>
       </c>
       <c r="H36" t="n">
-        <v>92.48729593459848</v>
+        <v>92.48729593459851</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J36" t="n">
-        <v>67.56063645294621</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K36" t="n">
-        <v>168.9936422730287</v>
+        <v>555.6443519024863</v>
       </c>
       <c r="L36" t="n">
-        <v>718.8373192141044</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M36" t="n">
-        <v>1218.220234854086</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N36" t="n">
-        <v>1885.739725437292</v>
+        <v>1591.197875060672</v>
       </c>
       <c r="O36" t="n">
-        <v>2095.090831963344</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P36" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q36" t="n">
         <v>2608.534525615434</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>352.4893974565093</v>
+        <v>106.4334486588142</v>
       </c>
       <c r="C37" t="n">
-        <v>330.6657482883101</v>
+        <v>84.60979949061507</v>
       </c>
       <c r="D37" t="n">
-        <v>228.7182275976949</v>
+        <v>81.60569383798712</v>
       </c>
       <c r="E37" t="n">
-        <v>80.80513401530175</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="F37" t="n">
-        <v>80.80513401530175</v>
+        <v>80.80513401530177</v>
       </c>
       <c r="G37" t="n">
-        <v>59.49000301458094</v>
+        <v>59.49000301458096</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94096893601659</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="K37" t="n">
         <v>175.3921171012701</v>
@@ -7105,7 +7105,7 @@
         <v>619.1321880174389</v>
       </c>
       <c r="N37" t="n">
-        <v>851.8293696127618</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O37" t="n">
         <v>1050.746584431785</v>
@@ -7120,25 +7120,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S37" t="n">
-        <v>1158.352459338912</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T37" t="n">
-        <v>933.4888509673526</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U37" t="n">
-        <v>791.4589817726051</v>
+        <v>938.5715155323126</v>
       </c>
       <c r="V37" t="n">
-        <v>683.8870273264259</v>
+        <v>830.9995610861334</v>
       </c>
       <c r="W37" t="n">
-        <v>541.5823910491731</v>
+        <v>589.7515097708937</v>
       </c>
       <c r="X37" t="n">
-        <v>460.7053739108636</v>
+        <v>508.8744926325841</v>
       </c>
       <c r="Y37" t="n">
-        <v>387.0253285270412</v>
+        <v>288.0819134890539</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7148,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1426.088700803848</v>
+        <v>1426.088700803849</v>
       </c>
       <c r="C38" t="n">
         <v>1204.238717623145</v>
       </c>
       <c r="D38" t="n">
-        <v>993.0855527761017</v>
+        <v>993.0855527761025</v>
       </c>
       <c r="E38" t="n">
-        <v>754.4098339375653</v>
+        <v>754.4098339375661</v>
       </c>
       <c r="F38" t="n">
-        <v>490.5364629076655</v>
+        <v>490.5364629076663</v>
       </c>
       <c r="G38" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H38" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I38" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J38" t="n">
-        <v>275.8091558671468</v>
+        <v>108.4035068467938</v>
       </c>
       <c r="K38" t="n">
-        <v>729.0768589303116</v>
+        <v>240.7672514645053</v>
       </c>
       <c r="L38" t="n">
-        <v>930.1875503894577</v>
+        <v>855.3625453285972</v>
       </c>
       <c r="M38" t="n">
-        <v>1185.631381963596</v>
+        <v>1110.806376902736</v>
       </c>
       <c r="N38" t="n">
-        <v>1449.822370169741</v>
+        <v>1778.325867485941</v>
       </c>
       <c r="O38" t="n">
-        <v>1923.981017474577</v>
+        <v>2391.450844277252</v>
       </c>
       <c r="P38" t="n">
-        <v>2409.594617110753</v>
+        <v>2558.483722823659</v>
       </c>
       <c r="Q38" t="n">
         <v>2697.04844680083</v>
@@ -7202,7 +7202,7 @@
         <v>2697.04844680083</v>
       </c>
       <c r="T38" t="n">
-        <v>2631.109718285715</v>
+        <v>2631.109718285716</v>
       </c>
       <c r="U38" t="n">
         <v>2524.562504920008</v>
@@ -7214,7 +7214,7 @@
         <v>2134.956029825739</v>
       </c>
       <c r="X38" t="n">
-        <v>1908.602805324366</v>
+        <v>1908.602805324367</v>
       </c>
       <c r="Y38" t="n">
         <v>1665.576007108263</v>
@@ -7245,31 +7245,31 @@
         <v>191.3391358172531</v>
       </c>
       <c r="H39" t="n">
-        <v>92.48729593459849</v>
+        <v>92.48729593459851</v>
       </c>
       <c r="I39" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J39" t="n">
-        <v>67.56063645294621</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K39" t="n">
-        <v>430.8142269154815</v>
+        <v>555.6443519024863</v>
       </c>
       <c r="L39" t="n">
-        <v>613.5259620061325</v>
+        <v>738.3560869931373</v>
       </c>
       <c r="M39" t="n">
-        <v>846.0988070733981</v>
+        <v>1405.875577576343</v>
       </c>
       <c r="N39" t="n">
-        <v>1495.81602935333</v>
+        <v>2073.395068159548</v>
       </c>
       <c r="O39" t="n">
-        <v>2095.090831963344</v>
+        <v>2282.7461746856</v>
       </c>
       <c r="P39" t="n">
-        <v>2559.058626380338</v>
+        <v>2431.435828149057</v>
       </c>
       <c r="Q39" t="n">
         <v>2608.534525615434</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>230.0680315191307</v>
+        <v>352.489397456509</v>
       </c>
       <c r="C40" t="n">
-        <v>84.60979949061505</v>
+        <v>330.6657482883098</v>
       </c>
       <c r="D40" t="n">
-        <v>81.60569383798709</v>
+        <v>180.5491088759741</v>
       </c>
       <c r="E40" t="n">
-        <v>80.80513401530175</v>
+        <v>179.7485490532888</v>
       </c>
       <c r="F40" t="n">
-        <v>80.80513401530175</v>
+        <v>179.7485490532888</v>
       </c>
       <c r="G40" t="n">
-        <v>59.49000301458095</v>
+        <v>59.49000301458096</v>
       </c>
       <c r="H40" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="I40" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="J40" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601661</v>
       </c>
       <c r="K40" t="n">
         <v>175.3921171012701</v>
@@ -7342,7 +7342,7 @@
         <v>619.1321880174389</v>
       </c>
       <c r="N40" t="n">
-        <v>851.8293696127618</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O40" t="n">
         <v>1050.746584431785</v>
@@ -7354,28 +7354,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R40" t="n">
-        <v>1093.136221406616</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S40" t="n">
-        <v>1035.931093401533</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T40" t="n">
-        <v>958.1800187896819</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U40" t="n">
-        <v>816.1501495949342</v>
+        <v>938.5715155323126</v>
       </c>
       <c r="V40" t="n">
-        <v>708.5781951487551</v>
+        <v>830.9995610861334</v>
       </c>
       <c r="W40" t="n">
-        <v>566.2735588715022</v>
+        <v>688.6949248088806</v>
       </c>
       <c r="X40" t="n">
-        <v>485.3965417331927</v>
+        <v>607.817907670571</v>
       </c>
       <c r="Y40" t="n">
-        <v>264.6039625896626</v>
+        <v>534.1378622867487</v>
       </c>
     </row>
     <row r="41">
@@ -7388,64 +7388,64 @@
         <v>1426.088700803848</v>
       </c>
       <c r="C41" t="n">
-        <v>1204.238717623145</v>
+        <v>1204.238717623144</v>
       </c>
       <c r="D41" t="n">
-        <v>993.0855527761017</v>
+        <v>993.0855527761014</v>
       </c>
       <c r="E41" t="n">
-        <v>754.4098339375653</v>
+        <v>754.4098339375651</v>
       </c>
       <c r="F41" t="n">
-        <v>490.5364629076655</v>
+        <v>490.5364629076653</v>
       </c>
       <c r="G41" t="n">
         <v>220.9606665217257</v>
       </c>
       <c r="H41" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I41" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J41" t="n">
-        <v>275.8091558671468</v>
+        <v>275.8091558671467</v>
       </c>
       <c r="K41" t="n">
-        <v>729.0768589303116</v>
+        <v>729.0768589303113</v>
       </c>
       <c r="L41" t="n">
-        <v>930.1875503894577</v>
+        <v>1001.413061656289</v>
       </c>
       <c r="M41" t="n">
-        <v>1185.631381963596</v>
+        <v>1256.856893230427</v>
       </c>
       <c r="N41" t="n">
-        <v>1604.844040927178</v>
+        <v>1521.047881436572</v>
       </c>
       <c r="O41" t="n">
-        <v>2217.969017718489</v>
+        <v>2134.172858227883</v>
       </c>
       <c r="P41" t="n">
-        <v>2385.001896264896</v>
+        <v>2619.786457864058</v>
       </c>
       <c r="Q41" t="n">
-        <v>2672.455725954974</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.04844680083</v>
+        <v>2697.048446800829</v>
       </c>
       <c r="T41" t="n">
         <v>2631.109718285715</v>
       </c>
       <c r="U41" t="n">
-        <v>2524.562504920008</v>
+        <v>2524.562504920007</v>
       </c>
       <c r="V41" t="n">
-        <v>2340.612151336145</v>
+        <v>2340.612151336144</v>
       </c>
       <c r="W41" t="n">
         <v>2134.956029825738</v>
@@ -7454,7 +7454,7 @@
         <v>1908.602805324366</v>
       </c>
       <c r="Y41" t="n">
-        <v>1665.576007108263</v>
+        <v>1665.576007108262</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>92.48729593459849</v>
       </c>
       <c r="I42" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J42" t="n">
-        <v>67.56063645294621</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K42" t="n">
-        <v>430.8142269154815</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L42" t="n">
-        <v>613.5259620061325</v>
+        <v>802.1296682777293</v>
       </c>
       <c r="M42" t="n">
-        <v>846.0988070733981</v>
+        <v>1034.702513344995</v>
       </c>
       <c r="N42" t="n">
-        <v>1513.618297656604</v>
+        <v>1287.839514494839</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.893100266618</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P42" t="n">
         <v>2351.082111521847</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>372.6692184280679</v>
+        <v>253.3233961567245</v>
       </c>
       <c r="C43" t="n">
-        <v>203.733035500161</v>
+        <v>231.4997469885254</v>
       </c>
       <c r="D43" t="n">
-        <v>200.7289298475331</v>
+        <v>228.4956413358974</v>
       </c>
       <c r="E43" t="n">
-        <v>199.9283700248478</v>
+        <v>227.6950815132121</v>
       </c>
       <c r="F43" t="n">
-        <v>199.9283700248478</v>
+        <v>80.80513401530175</v>
       </c>
       <c r="G43" t="n">
-        <v>178.613239024127</v>
+        <v>59.49000301458095</v>
       </c>
       <c r="H43" t="n">
-        <v>173.0642049455626</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I43" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J43" t="n">
-        <v>53.9409689360166</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="K43" t="n">
         <v>175.3921171012701</v>
@@ -7579,7 +7579,7 @@
         <v>619.1321880174389</v>
       </c>
       <c r="N43" t="n">
-        <v>851.8293696127618</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O43" t="n">
         <v>1050.746584431785</v>
@@ -7591,28 +7591,28 @@
         <v>1215.557587343994</v>
       </c>
       <c r="R43" t="n">
-        <v>1093.136221406616</v>
+        <v>1215.557587343994</v>
       </c>
       <c r="S43" t="n">
-        <v>1035.931093401533</v>
+        <v>1059.186458039127</v>
       </c>
       <c r="T43" t="n">
-        <v>958.1800187896819</v>
+        <v>981.4353834272756</v>
       </c>
       <c r="U43" t="n">
-        <v>816.1501495949342</v>
+        <v>839.405514232528</v>
       </c>
       <c r="V43" t="n">
-        <v>708.5781951487551</v>
+        <v>731.8335597863489</v>
       </c>
       <c r="W43" t="n">
-        <v>566.2735588715022</v>
+        <v>589.5289235090961</v>
       </c>
       <c r="X43" t="n">
-        <v>485.3965417331927</v>
+        <v>361.5393726110788</v>
       </c>
       <c r="Y43" t="n">
-        <v>407.2051494985999</v>
+        <v>287.8593272272565</v>
       </c>
     </row>
     <row r="44">
@@ -7628,46 +7628,46 @@
         <v>1204.238717623144</v>
       </c>
       <c r="D44" t="n">
-        <v>993.0855527761014</v>
+        <v>993.0855527761013</v>
       </c>
       <c r="E44" t="n">
-        <v>754.4098339375653</v>
+        <v>754.4098339375648</v>
       </c>
       <c r="F44" t="n">
-        <v>490.5364629076654</v>
+        <v>490.5364629076653</v>
       </c>
       <c r="G44" t="n">
-        <v>220.9606665217256</v>
+        <v>220.9606665217248</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J44" t="n">
-        <v>108.4035068467938</v>
+        <v>275.8091558671467</v>
       </c>
       <c r="K44" t="n">
-        <v>561.6712099099584</v>
+        <v>729.0768589303113</v>
       </c>
       <c r="L44" t="n">
-        <v>762.7819013691045</v>
+        <v>930.1875503894573</v>
       </c>
       <c r="M44" t="n">
-        <v>1338.909450639946</v>
+        <v>1185.631381963596</v>
       </c>
       <c r="N44" t="n">
-        <v>2006.428941223151</v>
+        <v>1449.82237016974</v>
       </c>
       <c r="O44" t="n">
-        <v>2242.561738564345</v>
+        <v>2062.947346961051</v>
       </c>
       <c r="P44" t="n">
-        <v>2409.594617110752</v>
+        <v>2385.001896264896</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.048446800829</v>
+        <v>2672.455725954973</v>
       </c>
       <c r="R44" t="n">
         <v>2697.048446800829</v>
@@ -7676,19 +7676,19 @@
         <v>2697.048446800829</v>
       </c>
       <c r="T44" t="n">
-        <v>2631.109718285714</v>
+        <v>2631.109718285715</v>
       </c>
       <c r="U44" t="n">
-        <v>2524.562504920007</v>
+        <v>2524.562504920008</v>
       </c>
       <c r="V44" t="n">
-        <v>2340.612151336144</v>
+        <v>2340.612151336145</v>
       </c>
       <c r="W44" t="n">
-        <v>2134.956029825737</v>
+        <v>2134.956029825738</v>
       </c>
       <c r="X44" t="n">
-        <v>1908.602805324365</v>
+        <v>1908.602805324366</v>
       </c>
       <c r="Y44" t="n">
         <v>1665.576007108262</v>
@@ -7716,34 +7716,34 @@
         <v>328.5668080003838</v>
       </c>
       <c r="G45" t="n">
-        <v>191.339135817253</v>
+        <v>191.3391358172531</v>
       </c>
       <c r="H45" t="n">
-        <v>92.48729593459848</v>
+        <v>92.48729593459849</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J45" t="n">
-        <v>67.5606364529462</v>
+        <v>192.3907614399509</v>
       </c>
       <c r="K45" t="n">
-        <v>430.8142269154815</v>
+        <v>555.6443519024862</v>
       </c>
       <c r="L45" t="n">
-        <v>911.0018346563967</v>
+        <v>1105.488028843562</v>
       </c>
       <c r="M45" t="n">
-        <v>1143.574679723662</v>
+        <v>1338.060873910827</v>
       </c>
       <c r="N45" t="n">
-        <v>1811.094170306867</v>
+        <v>1591.197875060672</v>
       </c>
       <c r="O45" t="n">
-        <v>2410.368972916881</v>
+        <v>1887.114317104853</v>
       </c>
       <c r="P45" t="n">
-        <v>2559.058626380338</v>
+        <v>2351.082111521847</v>
       </c>
       <c r="Q45" t="n">
         <v>2608.534525615434</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>400.4359299164319</v>
+        <v>352.4893974565089</v>
       </c>
       <c r="C46" t="n">
-        <v>378.6122807482329</v>
+        <v>183.553214528602</v>
       </c>
       <c r="D46" t="n">
-        <v>375.608175095605</v>
+        <v>81.60569383798709</v>
       </c>
       <c r="E46" t="n">
-        <v>227.6950815132119</v>
+        <v>80.80513401530175</v>
       </c>
       <c r="F46" t="n">
-        <v>80.80513401530158</v>
+        <v>80.80513401530175</v>
       </c>
       <c r="G46" t="n">
-        <v>59.49000301458085</v>
+        <v>59.49000301458095</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94096893601658</v>
+        <v>53.94096893601659</v>
       </c>
       <c r="K46" t="n">
         <v>175.3921171012701</v>
@@ -7816,7 +7816,7 @@
         <v>619.1321880174389</v>
       </c>
       <c r="N46" t="n">
-        <v>851.8293696127618</v>
+        <v>851.8293696127616</v>
       </c>
       <c r="O46" t="n">
         <v>1050.746584431785</v>
@@ -7831,25 +7831,25 @@
         <v>1215.557587343994</v>
       </c>
       <c r="S46" t="n">
-        <v>1158.352459338912</v>
+        <v>1158.352459338911</v>
       </c>
       <c r="T46" t="n">
-        <v>1080.601384727061</v>
+        <v>1080.60138472706</v>
       </c>
       <c r="U46" t="n">
-        <v>839.4055142325271</v>
+        <v>791.4589817726047</v>
       </c>
       <c r="V46" t="n">
-        <v>731.8335597863481</v>
+        <v>683.8870273264256</v>
       </c>
       <c r="W46" t="n">
-        <v>589.5289235090954</v>
+        <v>541.5823910491728</v>
       </c>
       <c r="X46" t="n">
-        <v>508.651906370786</v>
+        <v>460.7053739108632</v>
       </c>
       <c r="Y46" t="n">
-        <v>434.9718609869637</v>
+        <v>387.0253285270409</v>
       </c>
     </row>
   </sheetData>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>205.6616725415507</v>
       </c>
       <c r="L11" t="n">
-        <v>380.4759295761908</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>122.1433189693122</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>188.7741878393824</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>314.8652231797922</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8927,28 +8927,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>157.5191834966326</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>345.1000650488706</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>203.3149681418683</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>188.7741878393824</v>
       </c>
       <c r="M15" t="n">
-        <v>348.6959764366762</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>16.18191683456425</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>372.1522779934578</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>380.4759295761906</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>186.7964666867143</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>316.7584581145759</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>345.1000650488703</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>72.87659815258499</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>188.7741878393823</v>
+        <v>188.7741878393824</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>205.6616725415507</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>325.5939698640772</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>67.54156116984657</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>122.557025125444</v>
+        <v>188.7741878393824</v>
       </c>
       <c r="M21" t="n">
-        <v>348.6959764366759</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>372.1522779934576</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>293.9615780287139</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>181.5197315482218</v>
       </c>
       <c r="R23" t="n">
-        <v>40.87528770545086</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>296.9256244994882</v>
+        <v>1.484829832822015</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9881,22 +9881,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>296.4865841974948</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>227.7732319674085</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>40.87528770545086</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,19 +9954,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>257.0402514126326</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>87.43973284659518</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>392.3490905764629</v>
       </c>
       <c r="M29" t="n">
-        <v>440.7420672020385</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,13 +10200,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>87.43973284659518</v>
       </c>
       <c r="P30" t="n">
-        <v>191.0253641555568</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10352,13 +10352,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>155.1505477435364</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>387.1936682704658</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>40.87528770545086</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>87.43973284659529</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>38.46664950854453</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>148.9489492157277</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>416.2380394030978</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>407.4025276535969</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>45.34261448473691</v>
       </c>
       <c r="R35" t="n">
-        <v>40.87528770545086</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>269.5051217906226</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>418.568171144809</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>87.43973284659563</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>407.4025276535969</v>
       </c>
       <c r="O38" t="n">
-        <v>240.4301514784276</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>61.92195458626205</v>
       </c>
       <c r="R38" t="n">
-        <v>40.87528770545086</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10908,19 +10908,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>439.340045975697</v>
       </c>
       <c r="N39" t="n">
-        <v>400.586081949583</v>
+        <v>418.5681711448093</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>128.9119174053345</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,25 +11063,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>71.94496087558758</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>156.5875462196339</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>40.87528770545089</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,25 +11136,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>64.41775887332534</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>418.5681711448091</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>90.40339170886179</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11303,22 +11303,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>323.9229471683873</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>407.4025276535965</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>156.587546219634</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>40.87528770545086</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>300.4806794447113</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>418.5681711448088</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>87.43973284659586</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,10 +23261,10 @@
         <v>285.8416805439006</v>
       </c>
       <c r="D11" t="n">
-        <v>275.251830393576</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>302.4991588451549</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>231.5596978048558</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.21019719500373</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>23.65684394139942</v>
+        <v>117.0857792794538</v>
       </c>
       <c r="U11" t="n">
-        <v>171.691938427054</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>248.3210472430279</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>290.2998894513621</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>306.8067274289466</v>
       </c>
     </row>
     <row r="12">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>27.79801169921996</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>285.8416805439006</v>
       </c>
       <c r="D14" t="n">
         <v>275.251830393576</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>333.0902356170842</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>54.98973800082621</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>23.81896975173333</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.21019719500373</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>131.4895384249674</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>171.691938427054</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>248.3210472430279</v>
       </c>
       <c r="W14" t="n">
         <v>269.8097574903061</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>127.83999545183</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.05832719786042</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>179.8983226496907</v>
       </c>
     </row>
     <row r="18">
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>11.008486633769</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24026,10 +24026,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>168.889836015921</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>179.8983226496912</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>641086.9603572668</v>
+        <v>641086.9603572666</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>712576.3516106833</v>
+        <v>712576.3516106831</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>734109.2259996152</v>
+        <v>734109.2259996153</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>742030.7447779612</v>
+        <v>742030.7447779613</v>
       </c>
     </row>
     <row r="14">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778312.5217811862</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="C2" t="n">
-        <v>778312.5217811862</v>
+        <v>778312.5217811863</v>
       </c>
       <c r="D2" t="n">
-        <v>778312.5217811863</v>
+        <v>778312.5217811865</v>
       </c>
       <c r="E2" t="n">
+        <v>681492.1180988683</v>
+      </c>
+      <c r="F2" t="n">
         <v>681492.1180988676</v>
-      </c>
-      <c r="F2" t="n">
-        <v>681492.1180988681</v>
       </c>
       <c r="G2" t="n">
         <v>766385.7702122999</v>
@@ -26335,25 +26335,25 @@
         <v>779989.6813710695</v>
       </c>
       <c r="J2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="K2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710683</v>
       </c>
       <c r="L2" t="n">
-        <v>779989.6813710683</v>
+        <v>779989.681371069</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.681371069</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.681371069</v>
       </c>
       <c r="P2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710693</v>
       </c>
     </row>
     <row r="3">
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>63544.96898168557</v>
+        <v>63544.96898168554</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>12327.03098776751</v>
+        <v>12327.03098776757</v>
       </c>
       <c r="J3" t="n">
         <v>75688.18005323116</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>63544.96898168557</v>
+        <v>63544.96898168553</v>
       </c>
       <c r="M3" t="n">
-        <v>137355.3289379698</v>
+        <v>137355.3289379699</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>441649.2499958205</v>
       </c>
       <c r="E4" t="n">
-        <v>154325.0722680948</v>
+        <v>154325.0722680947</v>
       </c>
       <c r="F4" t="n">
-        <v>154325.0722680948</v>
+        <v>154325.0722680947</v>
       </c>
       <c r="G4" t="n">
         <v>205135.3026775317</v>
@@ -26451,7 +26451,7 @@
         <v>208992.6487667406</v>
       </c>
       <c r="N4" t="n">
-        <v>208992.6487667406</v>
+        <v>208992.6487667407</v>
       </c>
       <c r="O4" t="n">
         <v>208992.6487667406</v>
@@ -26476,16 +26476,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>57243.92344591297</v>
+        <v>57243.92344591295</v>
       </c>
       <c r="F5" t="n">
-        <v>57243.92344591297</v>
+        <v>57243.92344591295</v>
       </c>
       <c r="G5" t="n">
-        <v>63921.62594256461</v>
+        <v>63921.6259425646</v>
       </c>
       <c r="H5" t="n">
-        <v>63921.62594256461</v>
+        <v>63921.6259425646</v>
       </c>
       <c r="I5" t="n">
         <v>66740.07008220107</v>
@@ -26494,10 +26494,10 @@
         <v>77650.54597770231</v>
       </c>
       <c r="K5" t="n">
-        <v>77650.54597770234</v>
+        <v>77650.54597770231</v>
       </c>
       <c r="L5" t="n">
-        <v>77650.54597770234</v>
+        <v>77650.54597770232</v>
       </c>
       <c r="M5" t="n">
         <v>68321.30794187219</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303035.6717853658</v>
+        <v>303031.2582074978</v>
       </c>
       <c r="C6" t="n">
-        <v>303035.6717853657</v>
+        <v>303031.2582074977</v>
       </c>
       <c r="D6" t="n">
-        <v>303035.6717853659</v>
+        <v>303031.2582074979</v>
       </c>
       <c r="E6" t="n">
-        <v>-323708.5500301832</v>
+        <v>-323967.7541440567</v>
       </c>
       <c r="F6" t="n">
-        <v>469923.1223848604</v>
+        <v>469663.9182709858</v>
       </c>
       <c r="G6" t="n">
-        <v>433783.872610518</v>
+        <v>433748.0728443107</v>
       </c>
       <c r="H6" t="n">
-        <v>497328.8415922035</v>
+        <v>497293.0418259963</v>
       </c>
       <c r="I6" t="n">
-        <v>490030.3722658738</v>
+        <v>490030.3722658736</v>
       </c>
       <c r="J6" t="n">
-        <v>425796.2208990489</v>
+        <v>425796.220899049</v>
       </c>
       <c r="K6" t="n">
-        <v>501484.4009522804</v>
+        <v>501484.4009522795</v>
       </c>
       <c r="L6" t="n">
-        <v>437939.4319705939</v>
+        <v>437939.4319705946</v>
       </c>
       <c r="M6" t="n">
-        <v>365320.3957244866</v>
+        <v>365320.3957244863</v>
       </c>
       <c r="N6" t="n">
         <v>502675.7246624564</v>
       </c>
       <c r="O6" t="n">
-        <v>502675.7246624564</v>
+        <v>502675.7246624562</v>
       </c>
       <c r="P6" t="n">
         <v>502675.7246624564</v>
@@ -26707,13 +26707,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="J2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="K2" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M2" t="n">
         <v>145.6414084221107</v>
@@ -26725,7 +26725,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="P2" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="F3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="G3" t="n">
-        <v>691.846054397301</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="H3" t="n">
-        <v>691.846054397301</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="I3" t="n">
-        <v>691.846054397301</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="J3" t="n">
-        <v>691.846054397301</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="K3" t="n">
-        <v>691.846054397301</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="L3" t="n">
-        <v>691.846054397301</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="M3" t="n">
-        <v>691.846054397301</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="N3" t="n">
-        <v>691.846054397301</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="O3" t="n">
-        <v>691.846054397301</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="P3" t="n">
-        <v>691.846054397301</v>
+        <v>691.8460543973009</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="F4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="G4" t="n">
-        <v>583.6180421611866</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="H4" t="n">
-        <v>583.6180421611866</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="I4" t="n">
-        <v>629.974031299944</v>
+        <v>629.9740312999442</v>
       </c>
       <c r="J4" t="n">
+        <v>919.2532811708801</v>
+      </c>
+      <c r="K4" t="n">
         <v>919.25328117088</v>
       </c>
-      <c r="K4" t="n">
-        <v>919.2532811708803</v>
-      </c>
       <c r="L4" t="n">
-        <v>919.2532811708803</v>
+        <v>919.2532811708801</v>
       </c>
       <c r="M4" t="n">
+        <v>674.2621117002076</v>
+      </c>
+      <c r="N4" t="n">
+        <v>674.2621117002076</v>
+      </c>
+      <c r="O4" t="n">
         <v>674.2621117002074</v>
       </c>
-      <c r="N4" t="n">
-        <v>674.2621117002075</v>
-      </c>
-      <c r="O4" t="n">
-        <v>674.2621117002075</v>
-      </c>
       <c r="P4" t="n">
-        <v>674.2621117002072</v>
+        <v>674.2621117002074</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="M2" t="n">
-        <v>66.21019719500381</v>
+        <v>66.21019719500376</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691.8460543973008</v>
+        <v>691.8460543973009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>46.35598913875742</v>
+        <v>46.35598913875765</v>
       </c>
       <c r="J4" t="n">
         <v>289.2792498709359</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>338.6268726905138</v>
+        <v>338.626872690514</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>583.6180421611867</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28169,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>18.08533776941388</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -28178,46 +28178,46 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>38.16086372859608</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7.763751642754499</v>
+      </c>
+      <c r="S12" t="n">
         <v>79.43121122710696</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>79.43121122710696</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>7.763751642754514</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28235,7 +28235,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>59.35568526792551</v>
       </c>
     </row>
     <row r="13">
@@ -28287,7 +28287,7 @@
         <v>79.43121122710696</v>
       </c>
       <c r="P13" t="n">
-        <v>79.43121122710664</v>
+        <v>79.43121122710696</v>
       </c>
       <c r="Q13" t="n">
         <v>79.43121122710696</v>
@@ -28406,64 +28406,64 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>25.84908941216926</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>79.43121122710696</v>
       </c>
-      <c r="D15" t="n">
+      <c r="T15" t="n">
         <v>79.43121122710696</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
+      <c r="U15" t="n">
         <v>79.43121122710696</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
       <c r="V15" t="n">
-        <v>25.84908941216847</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>79.43121122710696</v>
       </c>
       <c r="J16" t="n">
-        <v>79.43121122710696</v>
+        <v>79.4312112271065</v>
       </c>
       <c r="K16" t="n">
         <v>79.43121122710696</v>
@@ -28646,10 +28646,10 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>116.6976575288515</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.763751642754485</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28697,10 +28697,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>97.51654899652104</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28722,13 +28722,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="C19" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>82.06717996200976</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -28737,13 +28737,13 @@
         <v>158.8624224542139</v>
       </c>
       <c r="H19" t="n">
-        <v>89.74113815400173</v>
+        <v>151.1349521598894</v>
       </c>
       <c r="I19" t="n">
-        <v>117.9320036494505</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,10 +28767,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.1971522780047</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="T19" t="n">
         <v>158.8624224542139</v>
@@ -28883,19 +28883,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>7.416979155447933</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>120.1007599176953</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>97.863321483828</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -28928,7 +28928,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>144.0419631757947</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28943,7 +28943,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -28956,13 +28956,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D22" t="n">
-        <v>94.49563976965388</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -28971,16 +28971,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="H22" t="n">
         <v>151.1349521598894</v>
       </c>
       <c r="I22" t="n">
-        <v>117.9320036494505</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J22" t="n">
-        <v>5.154479050315246</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29004,16 +29004,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>121.1971522780047</v>
+        <v>67.07731902944701</v>
       </c>
       <c r="S22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>158.8624224542139</v>
       </c>
       <c r="U22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>158.8624224542139</v>
@@ -29022,7 +29022,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="X22" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>158.8624224542139</v>
@@ -29135,7 +29135,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>38.16086372859608</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29162,10 +29162,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.763751642754485</v>
+        <v>7.763751642754499</v>
       </c>
       <c r="S24" t="n">
-        <v>38.31978507244857</v>
+        <v>76.48064880104441</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -29196,7 +29196,7 @@
         <v>158.8624224542139</v>
       </c>
       <c r="C25" t="n">
-        <v>104.7425892056555</v>
+        <v>158.8624224542139</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -29214,10 +29214,10 @@
         <v>151.1349521598894</v>
       </c>
       <c r="I25" t="n">
-        <v>117.9320036494505</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J25" t="n">
-        <v>5.154479050315246</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>121.1971522780047</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S25" t="n">
         <v>158.8624224542139</v>
@@ -29250,19 +29250,19 @@
         <v>158.8624224542139</v>
       </c>
       <c r="U25" t="n">
+        <v>104.7425892056561</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>158.8624224542139</v>
       </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
       <c r="Y25" t="n">
-        <v>158.8624224542139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="C26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="D26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="E26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="F26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="G26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="H26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="I26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="T26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="U26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="V26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="W26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="X26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="C28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="D28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="E28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="F28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="G28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="H28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="I28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="J28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="K28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="L28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="M28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="N28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="O28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="P28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="R28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="S28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="T28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="U28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="V28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="W28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="X28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.43121122710696</v>
+        <v>79.43121122710691</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="C31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="D31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="E31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="F31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="G31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="H31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="I31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="J31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="K31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="L31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="M31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="N31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="O31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="P31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710667</v>
       </c>
       <c r="R31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="S31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="T31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="U31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="V31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="W31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="X31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710694</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="C34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="D34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="E34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="F34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="G34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="H34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="I34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="J34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="K34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="L34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="M34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="N34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="O34" t="n">
-        <v>79.43121122710807</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="P34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="R34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="S34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="T34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="U34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="V34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="W34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="X34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.43121122710687</v>
+        <v>79.43121122710693</v>
       </c>
     </row>
     <row r="35">
@@ -30141,16 +30141,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="D37" t="n">
-        <v>47.68742753450327</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -30162,10 +30162,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="I37" t="n">
-        <v>117.9320036494505</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J37" t="n">
-        <v>5.154479050315246</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30189,13 +30189,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>121.1971522780047</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S37" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="U37" t="n">
         <v>145.6414084221107</v>
@@ -30204,13 +30204,13 @@
         <v>145.6414084221107</v>
       </c>
       <c r="W37" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450366</v>
       </c>
       <c r="X37" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
         <v>145.6414084221107</v>
       </c>
-      <c r="C40" t="n">
-        <v>23.24317139039738</v>
-      </c>
       <c r="D40" t="n">
-        <v>145.6414084221107</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>145.6414084221107</v>
@@ -30393,16 +30393,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>145.6414084221107</v>
+        <v>47.68742753450356</v>
       </c>
       <c r="H40" t="n">
         <v>145.6414084221107</v>
       </c>
       <c r="I40" t="n">
-        <v>117.9320036494505</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J40" t="n">
-        <v>5.154479050315246</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S40" t="n">
         <v>145.6414084221107</v>
@@ -30447,7 +30447,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
     </row>
     <row r="41">
@@ -30618,7 +30618,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="D43" t="n">
         <v>145.6414084221107</v>
@@ -30627,7 +30627,7 @@
         <v>145.6414084221107</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>145.6414084221107</v>
@@ -30636,10 +30636,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J43" t="n">
-        <v>5.154479050315246</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30663,10 +30663,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S43" t="n">
-        <v>145.6414084221107</v>
+        <v>47.46706713532396</v>
       </c>
       <c r="T43" t="n">
         <v>145.6414084221107</v>
@@ -30681,10 +30681,10 @@
         <v>145.6414084221107</v>
       </c>
       <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>145.6414084221107</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>141.1751750398479</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="C44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="D44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="E44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="F44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="G44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="H44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="I44" t="n">
         <v>103.2501809788403</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="U44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="V44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="W44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="X44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
     </row>
     <row r="45">
@@ -30852,31 +30852,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="C46" t="n">
-        <v>145.6414084221108</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>145.6414084221108</v>
+        <v>47.68742753450358</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="H46" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="I46" t="n">
-        <v>117.9320036494505</v>
+        <v>117.9320036494506</v>
       </c>
       <c r="J46" t="n">
-        <v>5.154479050315246</v>
+        <v>5.15447905031526</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>121.1971522780047</v>
+        <v>121.1971522780048</v>
       </c>
       <c r="S46" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="T46" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="U46" t="n">
-        <v>47.46706713532254</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="W46" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="X46" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
       <c r="Y46" t="n">
-        <v>145.6414084221108</v>
+        <v>145.6414084221107</v>
       </c>
     </row>
   </sheetData>
@@ -31762,37 +31762,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K11" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L11" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M11" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N11" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O11" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P11" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q11" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R11" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S11" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T11" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,13 +31829,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H12" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I12" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J12" t="n">
         <v>140.5948665827572</v>
@@ -31856,22 +31856,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P12" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q12" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R12" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S12" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T12" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U12" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,13 +31911,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H13" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I13" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J13" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K13" t="n">
         <v>144.9474192655328</v>
@@ -31926,7 +31926,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M13" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N13" t="n">
         <v>190.9154857978651</v>
@@ -31941,13 +31941,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R13" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S13" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T13" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U13" t="n">
         <v>0.06805043158006245</v>
@@ -31999,37 +31999,37 @@
         <v>236.0585690830268</v>
       </c>
       <c r="K14" t="n">
-        <v>353.790603184083</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L14" t="n">
         <v>438.9085275549832</v>
       </c>
       <c r="M14" t="n">
-        <v>488.370305524382</v>
+        <v>488.3703055243822</v>
       </c>
       <c r="N14" t="n">
-        <v>496.2726476432015</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O14" t="n">
-        <v>468.6161885340029</v>
+        <v>468.616188534003</v>
       </c>
       <c r="P14" t="n">
         <v>399.9530750950748</v>
       </c>
       <c r="Q14" t="n">
-        <v>300.3481029418955</v>
+        <v>300.3481029418956</v>
       </c>
       <c r="R14" t="n">
         <v>174.7102501086812</v>
       </c>
       <c r="S14" t="n">
-        <v>63.37866116413466</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T14" t="n">
         <v>12.17509991205702</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2225032536755136</v>
+        <v>0.2225032536755137</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.488121701911175</v>
+        <v>1.488121701911176</v>
       </c>
       <c r="H15" t="n">
         <v>14.37212275266846</v>
       </c>
       <c r="I15" t="n">
-        <v>51.23576912281898</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J15" t="n">
         <v>140.5948665827572</v>
@@ -32093,22 +32093,22 @@
         <v>354.0620086121734</v>
       </c>
       <c r="P15" t="n">
-        <v>284.1659765693366</v>
+        <v>284.1659765693367</v>
       </c>
       <c r="Q15" t="n">
         <v>189.9574298790476</v>
       </c>
       <c r="R15" t="n">
-        <v>92.39408250988862</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S15" t="n">
-        <v>27.64120792804308</v>
+        <v>27.64120792804309</v>
       </c>
       <c r="T15" t="n">
-        <v>5.9981747546332</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09790274354678789</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.247591245634477</v>
       </c>
       <c r="H16" t="n">
-        <v>11.09222034755017</v>
+        <v>11.09222034755018</v>
       </c>
       <c r="I16" t="n">
         <v>37.51847127780773</v>
       </c>
       <c r="J16" t="n">
-        <v>88.2047010663575</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K16" t="n">
         <v>144.9474192655328</v>
@@ -32163,7 +32163,7 @@
         <v>185.4827930100567</v>
       </c>
       <c r="M16" t="n">
-        <v>195.5655986225025</v>
+        <v>195.5655986225026</v>
       </c>
       <c r="N16" t="n">
         <v>190.9154857978651</v>
@@ -32178,13 +32178,13 @@
         <v>104.4687542139924</v>
       </c>
       <c r="R16" t="n">
-        <v>56.09623909916473</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S16" t="n">
         <v>21.74211288982992</v>
       </c>
       <c r="T16" t="n">
-        <v>5.330617140438218</v>
+        <v>5.330617140438219</v>
       </c>
       <c r="U16" t="n">
         <v>0.06805043158006245</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.781290670943922</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H17" t="n">
-        <v>28.48389308380445</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I17" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J17" t="n">
-        <v>236.0585690830269</v>
+        <v>236.0585690830268</v>
       </c>
       <c r="K17" t="n">
-        <v>353.7906031840832</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L17" t="n">
-        <v>438.9085275549833</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M17" t="n">
         <v>488.3703055243822</v>
       </c>
       <c r="N17" t="n">
-        <v>496.2726476432017</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O17" t="n">
         <v>468.616188534003</v>
       </c>
       <c r="P17" t="n">
-        <v>399.9530750950749</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q17" t="n">
         <v>300.3481029418956</v>
       </c>
       <c r="R17" t="n">
-        <v>174.7102501086813</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S17" t="n">
-        <v>63.37866116413468</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T17" t="n">
         <v>12.17509991205702</v>
@@ -32309,43 +32309,43 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I18" t="n">
-        <v>51.235769122819</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J18" t="n">
         <v>140.5948665827572</v>
       </c>
       <c r="K18" t="n">
-        <v>240.299020610806</v>
+        <v>240.2990206108059</v>
       </c>
       <c r="L18" t="n">
-        <v>323.111687952249</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M18" t="n">
-        <v>377.056099646529</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N18" t="n">
-        <v>387.0356526387317</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O18" t="n">
-        <v>354.0620086121735</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P18" t="n">
         <v>284.1659765693367</v>
       </c>
       <c r="Q18" t="n">
-        <v>189.9574298790477</v>
+        <v>189.9574298790476</v>
       </c>
       <c r="R18" t="n">
-        <v>92.39408250988865</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S18" t="n">
         <v>27.64120792804309</v>
       </c>
       <c r="T18" t="n">
-        <v>5.998174754633202</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09790274354678792</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32388,43 +32388,43 @@
         <v>11.09222034755018</v>
       </c>
       <c r="I19" t="n">
-        <v>37.51847127780774</v>
+        <v>37.51847127780773</v>
       </c>
       <c r="J19" t="n">
-        <v>88.20470106635753</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K19" t="n">
-        <v>144.9474192655329</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L19" t="n">
-        <v>185.4827930100568</v>
+        <v>185.4827930100567</v>
       </c>
       <c r="M19" t="n">
         <v>195.5655986225026</v>
       </c>
       <c r="N19" t="n">
-        <v>190.9154857978652</v>
+        <v>190.9154857978651</v>
       </c>
       <c r="O19" t="n">
-        <v>176.3413517011351</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P19" t="n">
         <v>150.8904902901916</v>
       </c>
       <c r="Q19" t="n">
-        <v>104.4687542139925</v>
+        <v>104.4687542139924</v>
       </c>
       <c r="R19" t="n">
-        <v>56.09623909916475</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S19" t="n">
-        <v>21.74211288982993</v>
+        <v>21.74211288982992</v>
       </c>
       <c r="T19" t="n">
         <v>5.330617140438219</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06805043158006246</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.781290670943922</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H20" t="n">
-        <v>28.48389308380445</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I20" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J20" t="n">
-        <v>236.0585690830269</v>
+        <v>236.0585690830268</v>
       </c>
       <c r="K20" t="n">
-        <v>353.7906031840832</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L20" t="n">
-        <v>438.9085275549833</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M20" t="n">
         <v>488.3703055243822</v>
       </c>
       <c r="N20" t="n">
-        <v>496.2726476432017</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O20" t="n">
         <v>468.616188534003</v>
       </c>
       <c r="P20" t="n">
-        <v>399.9530750950749</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q20" t="n">
         <v>300.3481029418956</v>
       </c>
       <c r="R20" t="n">
-        <v>174.7102501086813</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S20" t="n">
-        <v>63.37866116413468</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T20" t="n">
         <v>12.17509991205702</v>
@@ -32546,43 +32546,43 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I21" t="n">
-        <v>51.235769122819</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J21" t="n">
         <v>140.5948665827572</v>
       </c>
       <c r="K21" t="n">
-        <v>240.299020610806</v>
+        <v>240.2990206108059</v>
       </c>
       <c r="L21" t="n">
-        <v>323.111687952249</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M21" t="n">
-        <v>377.056099646529</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N21" t="n">
-        <v>387.0356526387317</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O21" t="n">
-        <v>354.0620086121735</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P21" t="n">
         <v>284.1659765693367</v>
       </c>
       <c r="Q21" t="n">
-        <v>189.9574298790477</v>
+        <v>189.9574298790476</v>
       </c>
       <c r="R21" t="n">
-        <v>92.39408250988865</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S21" t="n">
         <v>27.64120792804309</v>
       </c>
       <c r="T21" t="n">
-        <v>5.998174754633202</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09790274354678792</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32625,43 +32625,43 @@
         <v>11.09222034755018</v>
       </c>
       <c r="I22" t="n">
-        <v>37.51847127780774</v>
+        <v>37.51847127780773</v>
       </c>
       <c r="J22" t="n">
-        <v>88.20470106635753</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K22" t="n">
-        <v>144.9474192655329</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L22" t="n">
-        <v>185.4827930100568</v>
+        <v>185.4827930100567</v>
       </c>
       <c r="M22" t="n">
         <v>195.5655986225026</v>
       </c>
       <c r="N22" t="n">
-        <v>190.9154857978652</v>
+        <v>190.9154857978651</v>
       </c>
       <c r="O22" t="n">
-        <v>176.3413517011351</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P22" t="n">
         <v>150.8904902901916</v>
       </c>
       <c r="Q22" t="n">
-        <v>104.4687542139925</v>
+        <v>104.4687542139924</v>
       </c>
       <c r="R22" t="n">
-        <v>56.09623909916475</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S22" t="n">
-        <v>21.74211288982993</v>
+        <v>21.74211288982992</v>
       </c>
       <c r="T22" t="n">
         <v>5.330617140438219</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06805043158006246</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.781290670943922</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H23" t="n">
-        <v>28.48389308380445</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I23" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J23" t="n">
-        <v>236.0585690830269</v>
+        <v>236.0585690830268</v>
       </c>
       <c r="K23" t="n">
-        <v>353.7906031840832</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L23" t="n">
-        <v>438.9085275549833</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M23" t="n">
         <v>488.3703055243822</v>
       </c>
       <c r="N23" t="n">
-        <v>496.2726476432017</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O23" t="n">
         <v>468.616188534003</v>
       </c>
       <c r="P23" t="n">
-        <v>399.9530750950749</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q23" t="n">
         <v>300.3481029418956</v>
       </c>
       <c r="R23" t="n">
-        <v>174.7102501086813</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S23" t="n">
-        <v>63.37866116413468</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T23" t="n">
         <v>12.17509991205702</v>
@@ -32783,43 +32783,43 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I24" t="n">
-        <v>51.235769122819</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J24" t="n">
         <v>140.5948665827572</v>
       </c>
       <c r="K24" t="n">
-        <v>240.299020610806</v>
+        <v>240.2990206108059</v>
       </c>
       <c r="L24" t="n">
-        <v>323.111687952249</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M24" t="n">
-        <v>377.056099646529</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N24" t="n">
-        <v>387.0356526387317</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O24" t="n">
-        <v>354.0620086121735</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P24" t="n">
         <v>284.1659765693367</v>
       </c>
       <c r="Q24" t="n">
-        <v>189.9574298790477</v>
+        <v>189.9574298790476</v>
       </c>
       <c r="R24" t="n">
-        <v>92.39408250988865</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S24" t="n">
         <v>27.64120792804309</v>
       </c>
       <c r="T24" t="n">
-        <v>5.998174754633202</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09790274354678792</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32862,43 +32862,43 @@
         <v>11.09222034755018</v>
       </c>
       <c r="I25" t="n">
-        <v>37.51847127780774</v>
+        <v>37.51847127780773</v>
       </c>
       <c r="J25" t="n">
-        <v>88.20470106635753</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K25" t="n">
-        <v>144.9474192655329</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L25" t="n">
-        <v>185.4827930100568</v>
+        <v>185.4827930100567</v>
       </c>
       <c r="M25" t="n">
         <v>195.5655986225026</v>
       </c>
       <c r="N25" t="n">
-        <v>190.9154857978652</v>
+        <v>190.9154857978651</v>
       </c>
       <c r="O25" t="n">
-        <v>176.3413517011351</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P25" t="n">
         <v>150.8904902901916</v>
       </c>
       <c r="Q25" t="n">
-        <v>104.4687542139925</v>
+        <v>104.4687542139924</v>
       </c>
       <c r="R25" t="n">
-        <v>56.09623909916475</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S25" t="n">
-        <v>21.74211288982993</v>
+        <v>21.74211288982992</v>
       </c>
       <c r="T25" t="n">
         <v>5.330617140438219</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06805043158006246</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.781290670943922</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H26" t="n">
-        <v>28.48389308380445</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I26" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J26" t="n">
-        <v>236.0585690830269</v>
+        <v>236.0585690830268</v>
       </c>
       <c r="K26" t="n">
-        <v>353.7906031840832</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L26" t="n">
-        <v>438.9085275549833</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M26" t="n">
         <v>488.3703055243822</v>
       </c>
       <c r="N26" t="n">
-        <v>496.2726476432017</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O26" t="n">
         <v>468.616188534003</v>
       </c>
       <c r="P26" t="n">
-        <v>399.9530750950749</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q26" t="n">
         <v>300.3481029418956</v>
       </c>
       <c r="R26" t="n">
-        <v>174.7102501086813</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S26" t="n">
-        <v>63.37866116413468</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T26" t="n">
         <v>12.17509991205702</v>
@@ -33020,43 +33020,43 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I27" t="n">
-        <v>51.235769122819</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J27" t="n">
         <v>140.5948665827572</v>
       </c>
       <c r="K27" t="n">
-        <v>240.299020610806</v>
+        <v>240.2990206108059</v>
       </c>
       <c r="L27" t="n">
-        <v>323.111687952249</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M27" t="n">
-        <v>377.056099646529</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N27" t="n">
-        <v>387.0356526387317</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O27" t="n">
-        <v>354.0620086121735</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P27" t="n">
         <v>284.1659765693367</v>
       </c>
       <c r="Q27" t="n">
-        <v>189.9574298790477</v>
+        <v>189.9574298790476</v>
       </c>
       <c r="R27" t="n">
-        <v>92.39408250988865</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S27" t="n">
         <v>27.64120792804309</v>
       </c>
       <c r="T27" t="n">
-        <v>5.998174754633202</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09790274354678792</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33099,43 +33099,43 @@
         <v>11.09222034755018</v>
       </c>
       <c r="I28" t="n">
-        <v>37.51847127780774</v>
+        <v>37.51847127780773</v>
       </c>
       <c r="J28" t="n">
-        <v>88.20470106635753</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K28" t="n">
-        <v>144.9474192655329</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L28" t="n">
-        <v>185.4827930100568</v>
+        <v>185.4827930100567</v>
       </c>
       <c r="M28" t="n">
         <v>195.5655986225026</v>
       </c>
       <c r="N28" t="n">
-        <v>190.9154857978652</v>
+        <v>190.9154857978651</v>
       </c>
       <c r="O28" t="n">
-        <v>176.3413517011351</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P28" t="n">
         <v>150.8904902901916</v>
       </c>
       <c r="Q28" t="n">
-        <v>104.4687542139925</v>
+        <v>104.4687542139924</v>
       </c>
       <c r="R28" t="n">
-        <v>56.09623909916475</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S28" t="n">
-        <v>21.74211288982993</v>
+        <v>21.74211288982992</v>
       </c>
       <c r="T28" t="n">
         <v>5.330617140438219</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06805043158006246</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.781290670943922</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H29" t="n">
-        <v>28.48389308380445</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I29" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J29" t="n">
-        <v>236.0585690830269</v>
+        <v>236.0585690830268</v>
       </c>
       <c r="K29" t="n">
-        <v>353.7906031840832</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L29" t="n">
-        <v>438.9085275549833</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M29" t="n">
         <v>488.3703055243822</v>
       </c>
       <c r="N29" t="n">
-        <v>496.2726476432017</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O29" t="n">
         <v>468.616188534003</v>
       </c>
       <c r="P29" t="n">
-        <v>399.9530750950749</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q29" t="n">
         <v>300.3481029418956</v>
       </c>
       <c r="R29" t="n">
-        <v>174.7102501086813</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S29" t="n">
-        <v>63.37866116413468</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T29" t="n">
         <v>12.17509991205702</v>
@@ -33257,43 +33257,43 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I30" t="n">
-        <v>51.235769122819</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J30" t="n">
         <v>140.5948665827572</v>
       </c>
       <c r="K30" t="n">
-        <v>240.299020610806</v>
+        <v>240.2990206108059</v>
       </c>
       <c r="L30" t="n">
-        <v>323.111687952249</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M30" t="n">
-        <v>377.056099646529</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N30" t="n">
-        <v>387.0356526387317</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O30" t="n">
-        <v>354.0620086121735</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P30" t="n">
         <v>284.1659765693367</v>
       </c>
       <c r="Q30" t="n">
-        <v>189.9574298790477</v>
+        <v>189.9574298790476</v>
       </c>
       <c r="R30" t="n">
-        <v>92.39408250988865</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S30" t="n">
         <v>27.64120792804309</v>
       </c>
       <c r="T30" t="n">
-        <v>5.998174754633202</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09790274354678792</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33336,43 +33336,43 @@
         <v>11.09222034755018</v>
       </c>
       <c r="I31" t="n">
-        <v>37.51847127780774</v>
+        <v>37.51847127780773</v>
       </c>
       <c r="J31" t="n">
-        <v>88.20470106635753</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K31" t="n">
-        <v>144.9474192655329</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L31" t="n">
-        <v>185.4827930100568</v>
+        <v>185.4827930100567</v>
       </c>
       <c r="M31" t="n">
         <v>195.5655986225026</v>
       </c>
       <c r="N31" t="n">
-        <v>190.9154857978652</v>
+        <v>190.9154857978651</v>
       </c>
       <c r="O31" t="n">
-        <v>176.3413517011351</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P31" t="n">
         <v>150.8904902901916</v>
       </c>
       <c r="Q31" t="n">
-        <v>104.4687542139925</v>
+        <v>104.4687542139924</v>
       </c>
       <c r="R31" t="n">
-        <v>56.09623909916475</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S31" t="n">
-        <v>21.74211288982993</v>
+        <v>21.74211288982992</v>
       </c>
       <c r="T31" t="n">
         <v>5.330617140438219</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06805043158006246</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.781290670943922</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H32" t="n">
-        <v>28.48389308380445</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I32" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J32" t="n">
-        <v>236.0585690830269</v>
+        <v>236.0585690830268</v>
       </c>
       <c r="K32" t="n">
-        <v>353.7906031840832</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L32" t="n">
-        <v>438.9085275549833</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M32" t="n">
         <v>488.3703055243822</v>
       </c>
       <c r="N32" t="n">
-        <v>496.2726476432017</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O32" t="n">
         <v>468.616188534003</v>
       </c>
       <c r="P32" t="n">
-        <v>399.9530750950749</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q32" t="n">
         <v>300.3481029418956</v>
       </c>
       <c r="R32" t="n">
-        <v>174.7102501086813</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S32" t="n">
-        <v>63.37866116413468</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T32" t="n">
         <v>12.17509991205702</v>
@@ -33494,43 +33494,43 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I33" t="n">
-        <v>51.235769122819</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J33" t="n">
         <v>140.5948665827572</v>
       </c>
       <c r="K33" t="n">
-        <v>240.299020610806</v>
+        <v>240.2990206108059</v>
       </c>
       <c r="L33" t="n">
-        <v>323.111687952249</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M33" t="n">
-        <v>377.056099646529</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N33" t="n">
-        <v>387.0356526387317</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O33" t="n">
-        <v>354.0620086121735</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P33" t="n">
         <v>284.1659765693367</v>
       </c>
       <c r="Q33" t="n">
-        <v>189.9574298790477</v>
+        <v>189.9574298790476</v>
       </c>
       <c r="R33" t="n">
-        <v>92.39408250988865</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S33" t="n">
         <v>27.64120792804309</v>
       </c>
       <c r="T33" t="n">
-        <v>5.998174754633202</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09790274354678792</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33573,43 +33573,43 @@
         <v>11.09222034755018</v>
       </c>
       <c r="I34" t="n">
-        <v>37.51847127780774</v>
+        <v>37.51847127780773</v>
       </c>
       <c r="J34" t="n">
-        <v>88.20470106635753</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K34" t="n">
-        <v>144.9474192655329</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L34" t="n">
-        <v>185.4827930100568</v>
+        <v>185.4827930100567</v>
       </c>
       <c r="M34" t="n">
         <v>195.5655986225026</v>
       </c>
       <c r="N34" t="n">
-        <v>190.9154857978652</v>
+        <v>190.9154857978651</v>
       </c>
       <c r="O34" t="n">
-        <v>176.3413517011351</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P34" t="n">
         <v>150.8904902901916</v>
       </c>
       <c r="Q34" t="n">
-        <v>104.4687542139925</v>
+        <v>104.4687542139924</v>
       </c>
       <c r="R34" t="n">
-        <v>56.09623909916475</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S34" t="n">
-        <v>21.74211288982993</v>
+        <v>21.74211288982992</v>
       </c>
       <c r="T34" t="n">
         <v>5.330617140438219</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06805043158006246</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.781290670943922</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H35" t="n">
-        <v>28.48389308380445</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I35" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J35" t="n">
-        <v>236.0585690830269</v>
+        <v>236.0585690830268</v>
       </c>
       <c r="K35" t="n">
-        <v>353.7906031840832</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L35" t="n">
-        <v>438.9085275549833</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M35" t="n">
         <v>488.3703055243822</v>
       </c>
       <c r="N35" t="n">
-        <v>496.2726476432017</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O35" t="n">
         <v>468.616188534003</v>
       </c>
       <c r="P35" t="n">
-        <v>399.9530750950749</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q35" t="n">
         <v>300.3481029418956</v>
       </c>
       <c r="R35" t="n">
-        <v>174.7102501086813</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S35" t="n">
-        <v>63.37866116413468</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T35" t="n">
         <v>12.17509991205702</v>
@@ -33731,43 +33731,43 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I36" t="n">
-        <v>51.235769122819</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J36" t="n">
         <v>140.5948665827572</v>
       </c>
       <c r="K36" t="n">
-        <v>240.299020610806</v>
+        <v>240.2990206108059</v>
       </c>
       <c r="L36" t="n">
-        <v>323.111687952249</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M36" t="n">
-        <v>377.056099646529</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N36" t="n">
-        <v>387.0356526387317</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O36" t="n">
-        <v>354.0620086121735</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P36" t="n">
         <v>284.1659765693367</v>
       </c>
       <c r="Q36" t="n">
-        <v>189.9574298790477</v>
+        <v>189.9574298790476</v>
       </c>
       <c r="R36" t="n">
-        <v>92.39408250988865</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S36" t="n">
         <v>27.64120792804309</v>
       </c>
       <c r="T36" t="n">
-        <v>5.998174754633202</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09790274354678792</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33810,43 +33810,43 @@
         <v>11.09222034755018</v>
       </c>
       <c r="I37" t="n">
-        <v>37.51847127780774</v>
+        <v>37.51847127780773</v>
       </c>
       <c r="J37" t="n">
-        <v>88.20470106635753</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K37" t="n">
-        <v>144.9474192655329</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L37" t="n">
-        <v>185.4827930100568</v>
+        <v>185.4827930100567</v>
       </c>
       <c r="M37" t="n">
         <v>195.5655986225026</v>
       </c>
       <c r="N37" t="n">
-        <v>190.9154857978652</v>
+        <v>190.9154857978651</v>
       </c>
       <c r="O37" t="n">
-        <v>176.3413517011351</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P37" t="n">
         <v>150.8904902901916</v>
       </c>
       <c r="Q37" t="n">
-        <v>104.4687542139925</v>
+        <v>104.4687542139924</v>
       </c>
       <c r="R37" t="n">
-        <v>56.09623909916475</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S37" t="n">
-        <v>21.74211288982993</v>
+        <v>21.74211288982992</v>
       </c>
       <c r="T37" t="n">
         <v>5.330617140438219</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06805043158006246</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.781290670943922</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H38" t="n">
-        <v>28.48389308380445</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I38" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J38" t="n">
-        <v>236.0585690830269</v>
+        <v>236.0585690830268</v>
       </c>
       <c r="K38" t="n">
-        <v>353.7906031840832</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L38" t="n">
-        <v>438.9085275549833</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M38" t="n">
         <v>488.3703055243822</v>
       </c>
       <c r="N38" t="n">
-        <v>496.2726476432017</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O38" t="n">
         <v>468.616188534003</v>
       </c>
       <c r="P38" t="n">
-        <v>399.9530750950749</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q38" t="n">
         <v>300.3481029418956</v>
       </c>
       <c r="R38" t="n">
-        <v>174.7102501086813</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S38" t="n">
-        <v>63.37866116413468</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T38" t="n">
         <v>12.17509991205702</v>
@@ -33968,43 +33968,43 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I39" t="n">
-        <v>51.235769122819</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J39" t="n">
         <v>140.5948665827572</v>
       </c>
       <c r="K39" t="n">
-        <v>240.299020610806</v>
+        <v>240.2990206108059</v>
       </c>
       <c r="L39" t="n">
-        <v>323.111687952249</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M39" t="n">
-        <v>377.056099646529</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N39" t="n">
-        <v>387.0356526387317</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O39" t="n">
-        <v>354.0620086121735</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P39" t="n">
         <v>284.1659765693367</v>
       </c>
       <c r="Q39" t="n">
-        <v>189.9574298790477</v>
+        <v>189.9574298790476</v>
       </c>
       <c r="R39" t="n">
-        <v>92.39408250988865</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S39" t="n">
         <v>27.64120792804309</v>
       </c>
       <c r="T39" t="n">
-        <v>5.998174754633202</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09790274354678792</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34047,43 +34047,43 @@
         <v>11.09222034755018</v>
       </c>
       <c r="I40" t="n">
-        <v>37.51847127780774</v>
+        <v>37.51847127780773</v>
       </c>
       <c r="J40" t="n">
-        <v>88.20470106635753</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K40" t="n">
-        <v>144.9474192655329</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L40" t="n">
-        <v>185.4827930100568</v>
+        <v>185.4827930100567</v>
       </c>
       <c r="M40" t="n">
         <v>195.5655986225026</v>
       </c>
       <c r="N40" t="n">
-        <v>190.9154857978652</v>
+        <v>190.9154857978651</v>
       </c>
       <c r="O40" t="n">
-        <v>176.3413517011351</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P40" t="n">
         <v>150.8904902901916</v>
       </c>
       <c r="Q40" t="n">
-        <v>104.4687542139925</v>
+        <v>104.4687542139924</v>
       </c>
       <c r="R40" t="n">
-        <v>56.09623909916475</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S40" t="n">
-        <v>21.74211288982993</v>
+        <v>21.74211288982992</v>
       </c>
       <c r="T40" t="n">
         <v>5.330617140438219</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06805043158006246</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.781290670943922</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H41" t="n">
-        <v>28.48389308380445</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I41" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J41" t="n">
-        <v>236.0585690830269</v>
+        <v>236.0585690830268</v>
       </c>
       <c r="K41" t="n">
-        <v>353.7906031840832</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L41" t="n">
-        <v>438.9085275549833</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M41" t="n">
         <v>488.3703055243822</v>
       </c>
       <c r="N41" t="n">
-        <v>496.2726476432017</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O41" t="n">
         <v>468.616188534003</v>
       </c>
       <c r="P41" t="n">
-        <v>399.9530750950749</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q41" t="n">
         <v>300.3481029418956</v>
       </c>
       <c r="R41" t="n">
-        <v>174.7102501086813</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S41" t="n">
-        <v>63.37866116413468</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T41" t="n">
         <v>12.17509991205702</v>
@@ -34205,43 +34205,43 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I42" t="n">
-        <v>51.235769122819</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J42" t="n">
         <v>140.5948665827572</v>
       </c>
       <c r="K42" t="n">
-        <v>240.299020610806</v>
+        <v>240.2990206108059</v>
       </c>
       <c r="L42" t="n">
-        <v>323.111687952249</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M42" t="n">
-        <v>377.056099646529</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N42" t="n">
-        <v>387.0356526387317</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O42" t="n">
-        <v>354.0620086121735</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P42" t="n">
         <v>284.1659765693367</v>
       </c>
       <c r="Q42" t="n">
-        <v>189.9574298790477</v>
+        <v>189.9574298790476</v>
       </c>
       <c r="R42" t="n">
-        <v>92.39408250988865</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S42" t="n">
         <v>27.64120792804309</v>
       </c>
       <c r="T42" t="n">
-        <v>5.998174754633202</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09790274354678792</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34284,43 +34284,43 @@
         <v>11.09222034755018</v>
       </c>
       <c r="I43" t="n">
-        <v>37.51847127780774</v>
+        <v>37.51847127780773</v>
       </c>
       <c r="J43" t="n">
-        <v>88.20470106635753</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K43" t="n">
-        <v>144.9474192655329</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L43" t="n">
-        <v>185.4827930100568</v>
+        <v>185.4827930100567</v>
       </c>
       <c r="M43" t="n">
         <v>195.5655986225026</v>
       </c>
       <c r="N43" t="n">
-        <v>190.9154857978652</v>
+        <v>190.9154857978651</v>
       </c>
       <c r="O43" t="n">
-        <v>176.3413517011351</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P43" t="n">
         <v>150.8904902901916</v>
       </c>
       <c r="Q43" t="n">
-        <v>104.4687542139925</v>
+        <v>104.4687542139924</v>
       </c>
       <c r="R43" t="n">
-        <v>56.09623909916475</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S43" t="n">
-        <v>21.74211288982993</v>
+        <v>21.74211288982992</v>
       </c>
       <c r="T43" t="n">
         <v>5.330617140438219</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06805043158006246</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.781290670943922</v>
+        <v>2.781290670943921</v>
       </c>
       <c r="H44" t="n">
-        <v>28.48389308380445</v>
+        <v>28.48389308380444</v>
       </c>
       <c r="I44" t="n">
         <v>107.2257085915656</v>
       </c>
       <c r="J44" t="n">
-        <v>236.0585690830269</v>
+        <v>236.0585690830268</v>
       </c>
       <c r="K44" t="n">
-        <v>353.7906031840832</v>
+        <v>353.7906031840831</v>
       </c>
       <c r="L44" t="n">
-        <v>438.9085275549833</v>
+        <v>438.9085275549832</v>
       </c>
       <c r="M44" t="n">
         <v>488.3703055243822</v>
       </c>
       <c r="N44" t="n">
-        <v>496.2726476432017</v>
+        <v>496.2726476432016</v>
       </c>
       <c r="O44" t="n">
         <v>468.616188534003</v>
       </c>
       <c r="P44" t="n">
-        <v>399.9530750950749</v>
+        <v>399.9530750950748</v>
       </c>
       <c r="Q44" t="n">
         <v>300.3481029418956</v>
       </c>
       <c r="R44" t="n">
-        <v>174.7102501086813</v>
+        <v>174.7102501086812</v>
       </c>
       <c r="S44" t="n">
-        <v>63.37866116413468</v>
+        <v>63.37866116413467</v>
       </c>
       <c r="T44" t="n">
         <v>12.17509991205702</v>
@@ -34442,43 +34442,43 @@
         <v>14.37212275266846</v>
       </c>
       <c r="I45" t="n">
-        <v>51.235769122819</v>
+        <v>51.23576912281899</v>
       </c>
       <c r="J45" t="n">
         <v>140.5948665827572</v>
       </c>
       <c r="K45" t="n">
-        <v>240.299020610806</v>
+        <v>240.2990206108059</v>
       </c>
       <c r="L45" t="n">
-        <v>323.111687952249</v>
+        <v>323.1116879522489</v>
       </c>
       <c r="M45" t="n">
-        <v>377.056099646529</v>
+        <v>377.0560996465289</v>
       </c>
       <c r="N45" t="n">
-        <v>387.0356526387317</v>
+        <v>387.0356526387316</v>
       </c>
       <c r="O45" t="n">
-        <v>354.0620086121735</v>
+        <v>354.0620086121734</v>
       </c>
       <c r="P45" t="n">
         <v>284.1659765693367</v>
       </c>
       <c r="Q45" t="n">
-        <v>189.9574298790477</v>
+        <v>189.9574298790476</v>
       </c>
       <c r="R45" t="n">
-        <v>92.39408250988865</v>
+        <v>92.39408250988863</v>
       </c>
       <c r="S45" t="n">
         <v>27.64120792804309</v>
       </c>
       <c r="T45" t="n">
-        <v>5.998174754633202</v>
+        <v>5.998174754633201</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09790274354678792</v>
+        <v>0.09790274354678791</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34521,43 +34521,43 @@
         <v>11.09222034755018</v>
       </c>
       <c r="I46" t="n">
-        <v>37.51847127780774</v>
+        <v>37.51847127780773</v>
       </c>
       <c r="J46" t="n">
-        <v>88.20470106635753</v>
+        <v>88.20470106635752</v>
       </c>
       <c r="K46" t="n">
-        <v>144.9474192655329</v>
+        <v>144.9474192655328</v>
       </c>
       <c r="L46" t="n">
-        <v>185.4827930100568</v>
+        <v>185.4827930100567</v>
       </c>
       <c r="M46" t="n">
         <v>195.5655986225026</v>
       </c>
       <c r="N46" t="n">
-        <v>190.9154857978652</v>
+        <v>190.9154857978651</v>
       </c>
       <c r="O46" t="n">
-        <v>176.3413517011351</v>
+        <v>176.341351701135</v>
       </c>
       <c r="P46" t="n">
         <v>150.8904902901916</v>
       </c>
       <c r="Q46" t="n">
-        <v>104.4687542139925</v>
+        <v>104.4687542139924</v>
       </c>
       <c r="R46" t="n">
-        <v>56.09623909916475</v>
+        <v>56.09623909916474</v>
       </c>
       <c r="S46" t="n">
-        <v>21.74211288982993</v>
+        <v>21.74211288982992</v>
       </c>
       <c r="T46" t="n">
         <v>5.330617140438219</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06805043158006246</v>
+        <v>0.06805043158006245</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K11" t="n">
-        <v>133.7007521391025</v>
+        <v>339.3624246806532</v>
       </c>
       <c r="L11" t="n">
-        <v>583.6180421611867</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M11" t="n">
-        <v>258.0240722971093</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N11" t="n">
-        <v>389.0029030159228</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O11" t="n">
         <v>238.5179771123162</v>
       </c>
       <c r="P11" t="n">
-        <v>168.7200793398052</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q11" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R11" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K12" t="n">
         <v>366.9228186490255</v>
       </c>
       <c r="L12" t="n">
-        <v>184.5573081723747</v>
+        <v>373.3314960117572</v>
       </c>
       <c r="M12" t="n">
         <v>234.9220657245106</v>
       </c>
       <c r="N12" t="n">
-        <v>570.5591637351905</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O12" t="n">
-        <v>211.4657641677289</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P12" t="n">
         <v>468.6543377949436</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.27673217679168</v>
+        <v>74.2767321767917</v>
       </c>
       <c r="K13" t="n">
         <v>202.1091386667569</v>
@@ -35577,16 +35577,16 @@
         <v>314.5806868114501</v>
       </c>
       <c r="N13" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042007</v>
       </c>
       <c r="O13" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422817</v>
       </c>
       <c r="P13" t="n">
-        <v>227.6002607821917</v>
+        <v>227.600260782192</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.73792218940498</v>
+        <v>97.73792218940501</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>224.1092797284143</v>
       </c>
       <c r="K14" t="n">
-        <v>133.7007521391025</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L14" t="n">
-        <v>203.1421125849959</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M14" t="n">
-        <v>415.5432557937419</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N14" t="n">
-        <v>266.8595840466106</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O14" t="n">
-        <v>583.6180421611867</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P14" t="n">
-        <v>168.7200793398052</v>
+        <v>372.0350474816736</v>
       </c>
       <c r="Q14" t="n">
-        <v>290.3574037273507</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R14" t="n">
-        <v>24.84113216753153</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>13.75723991609047</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K15" t="n">
-        <v>102.4575816364469</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3976534758339</v>
+        <v>373.3314960117572</v>
       </c>
       <c r="M15" t="n">
-        <v>583.6180421611867</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N15" t="n">
-        <v>271.8758573899625</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O15" t="n">
-        <v>583.6180421611867</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P15" t="n">
-        <v>150.1915691550064</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q15" t="n">
-        <v>49.97565579302608</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>74.27673217679168</v>
+        <v>74.27673217679124</v>
       </c>
       <c r="K16" t="n">
         <v>202.1091386667569</v>
@@ -35814,16 +35814,16 @@
         <v>314.5806868114501</v>
       </c>
       <c r="N16" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042007</v>
       </c>
       <c r="O16" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422817</v>
       </c>
       <c r="P16" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.73792218940498</v>
+        <v>97.73792218940501</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>55.01266455634061</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K17" t="n">
         <v>133.7007521391026</v>
       </c>
       <c r="L17" t="n">
-        <v>583.6180421611866</v>
+        <v>203.142112584996</v>
       </c>
       <c r="M17" t="n">
-        <v>444.8205389838238</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N17" t="n">
-        <v>583.6180421611866</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O17" t="n">
-        <v>238.5179771123163</v>
+        <v>583.6180421611865</v>
       </c>
       <c r="P17" t="n">
-        <v>168.7200793398054</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.04241306744612</v>
+        <v>150.9190112200311</v>
       </c>
       <c r="R17" t="n">
-        <v>24.84113216753158</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>139.8482752564994</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K18" t="n">
         <v>366.9228186490255</v>
       </c>
       <c r="L18" t="n">
-        <v>373.3314960117571</v>
+        <v>373.3314960117572</v>
       </c>
       <c r="M18" t="n">
-        <v>234.9220657245107</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N18" t="n">
-        <v>255.6939405553984</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O18" t="n">
         <v>211.465764167729</v>
       </c>
       <c r="P18" t="n">
-        <v>468.6543377949437</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q18" t="n">
         <v>260.0529435288752</v>
@@ -36051,7 +36051,7 @@
         <v>235.1494755843432</v>
       </c>
       <c r="N19" t="n">
-        <v>235.0476581770938</v>
+        <v>235.0476581770937</v>
       </c>
       <c r="O19" t="n">
         <v>200.9264796151747</v>
@@ -36060,7 +36060,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.30671096229807</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>224.1092797284144</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K20" t="n">
-        <v>133.7007521391026</v>
+        <v>339.3624246806532</v>
       </c>
       <c r="L20" t="n">
         <v>203.142112584996</v>
       </c>
       <c r="M20" t="n">
-        <v>583.6180421611866</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N20" t="n">
-        <v>266.8595840466108</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O20" t="n">
-        <v>238.5179771123163</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P20" t="n">
-        <v>490.518787511288</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q20" t="n">
-        <v>145.5839742372927</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R20" t="n">
-        <v>24.84113216753158</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>13.75723991609053</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K21" t="n">
         <v>366.9228186490255</v>
       </c>
       <c r="L21" t="n">
-        <v>307.1143332978188</v>
+        <v>373.3314960117572</v>
       </c>
       <c r="M21" t="n">
-        <v>583.6180421611866</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N21" t="n">
-        <v>255.6939405553984</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O21" t="n">
-        <v>583.6180421611866</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P21" t="n">
-        <v>150.1915691550065</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q21" t="n">
-        <v>49.97565579302614</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>235.1494755843432</v>
       </c>
       <c r="N22" t="n">
-        <v>235.0476581770938</v>
+        <v>235.0476581770937</v>
       </c>
       <c r="O22" t="n">
         <v>200.9264796151747</v>
@@ -36297,7 +36297,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.30671096229807</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>55.01266455634061</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K23" t="n">
-        <v>133.7007521391026</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L23" t="n">
-        <v>620.8033271354465</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M23" t="n">
         <v>258.0240722971095</v>
       </c>
       <c r="N23" t="n">
-        <v>266.8595840466108</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O23" t="n">
-        <v>619.3181583750617</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P23" t="n">
-        <v>462.6816573685192</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q23" t="n">
-        <v>78.04241306744612</v>
+        <v>259.5621446156679</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>139.8482752564994</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K24" t="n">
         <v>366.9228186490255</v>
       </c>
       <c r="L24" t="n">
-        <v>184.5573081723748</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M24" t="n">
-        <v>531.8476902239988</v>
+        <v>236.4068955573326</v>
       </c>
       <c r="N24" t="n">
-        <v>255.6939405553984</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O24" t="n">
-        <v>605.3280834444586</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P24" t="n">
-        <v>150.1915691550065</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q24" t="n">
         <v>260.0529435288752</v>
@@ -36525,7 +36525,7 @@
         <v>235.1494755843432</v>
       </c>
       <c r="N25" t="n">
-        <v>235.0476581770938</v>
+        <v>235.0476581770937</v>
       </c>
       <c r="O25" t="n">
         <v>200.9264796151747</v>
@@ -36534,7 +36534,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.30671096229807</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>224.1092797284144</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K26" t="n">
-        <v>457.8461647102674</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L26" t="n">
-        <v>620.8033271354465</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M26" t="n">
-        <v>554.5106564946043</v>
+        <v>707.5376057899419</v>
       </c>
       <c r="N26" t="n">
-        <v>704.206508458595</v>
+        <v>704.2065084585948</v>
       </c>
       <c r="O26" t="n">
-        <v>619.3181583750617</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P26" t="n">
-        <v>168.7200793398054</v>
+        <v>396.4933113072138</v>
       </c>
       <c r="Q26" t="n">
         <v>290.3574037273508</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.8482752564994</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K27" t="n">
-        <v>102.457581636447</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L27" t="n">
-        <v>441.5975595850074</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M27" t="n">
-        <v>700.6271294745106</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N27" t="n">
-        <v>255.6939405553984</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O27" t="n">
-        <v>211.465764167729</v>
+        <v>298.9054970143242</v>
       </c>
       <c r="P27" t="n">
-        <v>468.6543377949437</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q27" t="n">
         <v>260.0529435288752</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>74.27673217679171</v>
+        <v>74.27673217679165</v>
       </c>
       <c r="K28" t="n">
-        <v>202.109138666757</v>
+        <v>202.1091386667569</v>
       </c>
       <c r="L28" t="n">
         <v>292.5040294974798</v>
       </c>
       <c r="M28" t="n">
-        <v>314.5806868114502</v>
+        <v>314.5806868114501</v>
       </c>
       <c r="N28" t="n">
-        <v>314.4788694042007</v>
+        <v>314.4788694042006</v>
       </c>
       <c r="O28" t="n">
-        <v>280.3576908422817</v>
+        <v>280.3576908422816</v>
       </c>
       <c r="P28" t="n">
-        <v>227.6002607821921</v>
+        <v>227.600260782192</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.73792218940503</v>
+        <v>97.73792218940497</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>55.01266455634061</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K29" t="n">
-        <v>457.8461647102674</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L29" t="n">
-        <v>620.8033271354465</v>
+        <v>595.4912031614589</v>
       </c>
       <c r="M29" t="n">
-        <v>698.7661394991479</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N29" t="n">
-        <v>704.206508458595</v>
+        <v>704.2065084585948</v>
       </c>
       <c r="O29" t="n">
-        <v>619.3181583750617</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P29" t="n">
-        <v>168.7200793398054</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q29" t="n">
         <v>290.3574037273508</v>
       </c>
       <c r="R29" t="n">
-        <v>24.84113216753158</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>139.8482752564994</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K30" t="n">
-        <v>102.457581636447</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L30" t="n">
         <v>555.397653475834</v>
       </c>
       <c r="M30" t="n">
-        <v>234.9220657245107</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N30" t="n">
-        <v>735.0363148989519</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O30" t="n">
-        <v>211.465764167729</v>
+        <v>298.9054970143242</v>
       </c>
       <c r="P30" t="n">
-        <v>341.2169333105633</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q30" t="n">
         <v>260.0529435288752</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>74.27673217679163</v>
+        <v>74.27673217679168</v>
       </c>
       <c r="K31" t="n">
         <v>202.1091386667569</v>
@@ -36999,16 +36999,16 @@
         <v>314.5806868114501</v>
       </c>
       <c r="N31" t="n">
-        <v>314.4788694042006</v>
+        <v>314.4788694042007</v>
       </c>
       <c r="O31" t="n">
-        <v>280.3576908422816</v>
+        <v>280.3576908422817</v>
       </c>
       <c r="P31" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940473</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>224.1092797284144</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K32" t="n">
-        <v>457.8461647102674</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L32" t="n">
-        <v>358.2926603285325</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M32" t="n">
-        <v>707.5376057899419</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N32" t="n">
-        <v>704.206508458595</v>
+        <v>654.0532523170765</v>
       </c>
       <c r="O32" t="n">
-        <v>619.3181583750617</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P32" t="n">
-        <v>490.518787511288</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q32" t="n">
-        <v>78.04241306744612</v>
+        <v>290.3574037273508</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>13.75723991609053</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K33" t="n">
-        <v>102.457581636447</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L33" t="n">
-        <v>184.5573081723748</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M33" t="n">
-        <v>700.6271294745106</v>
+        <v>322.3617985711059</v>
       </c>
       <c r="N33" t="n">
-        <v>735.0363148989519</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O33" t="n">
-        <v>605.3280834444586</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P33" t="n">
-        <v>150.1915691550065</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.44230530157067</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>74.27673217679163</v>
+        <v>74.27673217679167</v>
       </c>
       <c r="K34" t="n">
         <v>202.1091386667569</v>
@@ -37239,13 +37239,13 @@
         <v>314.4788694042006</v>
       </c>
       <c r="O34" t="n">
-        <v>280.3576908422828</v>
+        <v>280.3576908422816</v>
       </c>
       <c r="P34" t="n">
         <v>227.600260782192</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.73792218940494</v>
+        <v>97.73792218940498</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>203.9616137720683</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K35" t="n">
-        <v>133.7007521391026</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L35" t="n">
         <v>203.142112584996</v>
       </c>
       <c r="M35" t="n">
-        <v>674.2621117002074</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N35" t="n">
-        <v>266.8595840466108</v>
+        <v>674.2621117002076</v>
       </c>
       <c r="O35" t="n">
-        <v>619.3181583750617</v>
+        <v>238.5179771123162</v>
       </c>
       <c r="P35" t="n">
-        <v>490.518787511288</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q35" t="n">
-        <v>78.04241306744612</v>
+        <v>123.385027552183</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>13.75723991609053</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K36" t="n">
-        <v>102.457581636447</v>
+        <v>366.9228186490255</v>
       </c>
       <c r="L36" t="n">
         <v>555.397653475834</v>
       </c>
       <c r="M36" t="n">
-        <v>504.4271875151333</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N36" t="n">
-        <v>674.2621117002074</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O36" t="n">
-        <v>211.465764167729</v>
+        <v>298.9054970143246</v>
       </c>
       <c r="P36" t="n">
-        <v>468.6543377949437</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q36" t="n">
-        <v>49.97565579302614</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>235.1494755843432</v>
       </c>
       <c r="N37" t="n">
-        <v>235.0476581770938</v>
+        <v>235.0476581770937</v>
       </c>
       <c r="O37" t="n">
         <v>200.9264796151747</v>
@@ -37482,7 +37482,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.30671096229807</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>224.1092797284144</v>
+        <v>55.01266455634055</v>
       </c>
       <c r="K38" t="n">
-        <v>457.8461647102674</v>
+        <v>133.7007521391026</v>
       </c>
       <c r="L38" t="n">
-        <v>203.142112584996</v>
+        <v>620.8033271354464</v>
       </c>
       <c r="M38" t="n">
         <v>258.0240722971095</v>
       </c>
       <c r="N38" t="n">
-        <v>266.8595840466108</v>
+        <v>674.2621117002076</v>
       </c>
       <c r="O38" t="n">
-        <v>478.9481285907439</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P38" t="n">
-        <v>490.518787511288</v>
+        <v>168.7200793398053</v>
       </c>
       <c r="Q38" t="n">
-        <v>290.3574037273508</v>
+        <v>139.9643676537082</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>13.75723991609053</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K39" t="n">
         <v>366.9228186490255</v>
       </c>
       <c r="L39" t="n">
-        <v>184.5573081723748</v>
+        <v>184.5573081723747</v>
       </c>
       <c r="M39" t="n">
-        <v>234.9220657245107</v>
+        <v>674.2621117002076</v>
       </c>
       <c r="N39" t="n">
-        <v>656.2800225049814</v>
+        <v>674.2621117002076</v>
       </c>
       <c r="O39" t="n">
-        <v>605.3280834444586</v>
+        <v>211.465764167729</v>
       </c>
       <c r="P39" t="n">
-        <v>468.6543377949437</v>
+        <v>150.1915691550064</v>
       </c>
       <c r="Q39" t="n">
-        <v>49.97565579302614</v>
+        <v>178.8875731983606</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>235.1494755843432</v>
       </c>
       <c r="N40" t="n">
-        <v>235.0476581770938</v>
+        <v>235.0476581770937</v>
       </c>
       <c r="O40" t="n">
         <v>200.9264796151747</v>
@@ -37719,7 +37719,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.30671096229807</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>224.1092797284144</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K41" t="n">
-        <v>457.8461647102674</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L41" t="n">
-        <v>203.142112584996</v>
+        <v>275.0870734605836</v>
       </c>
       <c r="M41" t="n">
         <v>258.0240722971095</v>
       </c>
       <c r="N41" t="n">
-        <v>423.4471302662447</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O41" t="n">
-        <v>619.3181583750617</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P41" t="n">
-        <v>168.7200793398054</v>
+        <v>490.5187875112879</v>
       </c>
       <c r="Q41" t="n">
-        <v>290.3574037273508</v>
+        <v>78.04241306744612</v>
       </c>
       <c r="R41" t="n">
-        <v>24.84113216753158</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>13.75723991609053</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K42" t="n">
         <v>366.9228186490255</v>
       </c>
       <c r="L42" t="n">
-        <v>184.5573081723748</v>
+        <v>248.9750670457001</v>
       </c>
       <c r="M42" t="n">
-        <v>234.9220657245107</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N42" t="n">
-        <v>674.2621117002075</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O42" t="n">
         <v>605.3280834444586</v>
       </c>
       <c r="P42" t="n">
-        <v>240.5949608638683</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q42" t="n">
         <v>260.0529435288752</v>
@@ -37947,7 +37947,7 @@
         <v>235.1494755843432</v>
       </c>
       <c r="N43" t="n">
-        <v>235.0476581770938</v>
+        <v>235.0476581770937</v>
       </c>
       <c r="O43" t="n">
         <v>200.9264796151747</v>
@@ -37956,7 +37956,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.30671096229807</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,34 +38014,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>55.01266455634061</v>
+        <v>224.1092797284143</v>
       </c>
       <c r="K44" t="n">
-        <v>457.8461647102674</v>
+        <v>457.8461647102673</v>
       </c>
       <c r="L44" t="n">
         <v>203.142112584996</v>
       </c>
       <c r="M44" t="n">
-        <v>581.9470194654967</v>
+        <v>258.0240722971095</v>
       </c>
       <c r="N44" t="n">
-        <v>674.2621117002072</v>
+        <v>266.8595840466107</v>
       </c>
       <c r="O44" t="n">
-        <v>238.5179771123163</v>
+        <v>619.3181583750616</v>
       </c>
       <c r="P44" t="n">
-        <v>168.7200793398054</v>
+        <v>325.3076255594393</v>
       </c>
       <c r="Q44" t="n">
         <v>290.3574037273508</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>24.84113216753155</v>
       </c>
       <c r="S44" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>13.75723991609053</v>
+        <v>139.8482752564993</v>
       </c>
       <c r="K45" t="n">
         <v>366.9228186490255</v>
       </c>
       <c r="L45" t="n">
-        <v>485.0379876170861</v>
+        <v>555.397653475834</v>
       </c>
       <c r="M45" t="n">
-        <v>234.9220657245107</v>
+        <v>234.9220657245106</v>
       </c>
       <c r="N45" t="n">
-        <v>674.2621117002072</v>
+        <v>255.6939405553983</v>
       </c>
       <c r="O45" t="n">
-        <v>605.3280834444586</v>
+        <v>298.9054970143249</v>
       </c>
       <c r="P45" t="n">
-        <v>150.1915691550065</v>
+        <v>468.6543377949436</v>
       </c>
       <c r="Q45" t="n">
-        <v>49.97565579302614</v>
+        <v>260.0529435288752</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>235.1494755843432</v>
       </c>
       <c r="N46" t="n">
-        <v>235.0476581770938</v>
+        <v>235.0476581770937</v>
       </c>
       <c r="O46" t="n">
         <v>200.9264796151747</v>
@@ -38193,7 +38193,7 @@
         <v>148.1690495550851</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.30671096229807</v>
+        <v>18.30671096229806</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
